--- a/Energy Charts.xlsx
+++ b/Energy Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gux215/Desktop/IAC-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4115F8-2A7C-7945-BE72-691743053624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEBB539-A240-C14C-A016-6E5CF4CB0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$K$1:$N$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Monthly Charts'!$A$1:$S$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'Monthly Cost'!$A$1:$N$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Raw Data'!$A$1:$O$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'Total Energy'!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>Electricity</t>
   </si>
@@ -91,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve"> per kW</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Usage and Cost by Month</t>
   </si>
   <si>
     <t>Billing</t>
@@ -219,34 +220,10 @@
     <t>Feb. 09</t>
   </si>
   <si>
-    <t>Total Electricity Usage and Cost by Month</t>
-  </si>
-  <si>
-    <t>Mult. By</t>
-  </si>
-  <si>
     <t>Electricity Cost:</t>
   </si>
   <si>
     <t>Demand Cost:</t>
-  </si>
-  <si>
-    <t>Natural Gas Cost :</t>
-  </si>
-  <si>
-    <t>[DTH]</t>
-  </si>
-  <si>
-    <t>[Therm]</t>
-  </si>
-  <si>
-    <t>[Mcf]</t>
-  </si>
-  <si>
-    <t>[Ccf]</t>
-  </si>
-  <si>
-    <t>to MMBtu</t>
   </si>
   <si>
     <r>
@@ -275,12 +252,69 @@
   <si>
     <t xml:space="preserve">Cost [$] </t>
   </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Fuel Oil #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity Usage and Cost by Month</t>
+  </si>
+  <si>
+    <t>Fuel Oil #1</t>
+  </si>
+  <si>
+    <t>Fuel Oil #4</t>
+  </si>
+  <si>
+    <t>Fuel Oil #6</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Factor:</t>
+  </si>
+  <si>
+    <t>DTH</t>
+  </si>
+  <si>
+    <t>Therm</t>
+  </si>
+  <si>
+    <t>Mcf</t>
+  </si>
+  <si>
+    <t>Ccf</t>
+  </si>
+  <si>
+    <t>Fuel \ Unit</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>Select Fuel:</t>
+  </si>
+  <si>
+    <t>Select Unit:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -291,10 +325,9 @@
     <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="171" formatCode="mmm\ yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -303,19 +336,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -378,11 +398,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -410,19 +425,53 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +496,14 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -721,34 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -768,32 +795,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -849,36 +850,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,18 +929,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -978,7 +938,143 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -986,423 +1082,436 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1830,7 +1939,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Electricity Charge vs. Billing Month</a:t>
+              <a:t>Electricity Cost vs. Billing Month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2153,8 +2262,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Usage Charge [$]</a:t>
+                  <a:t>Electricity</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Cost [$]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2162,8 +2276,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.2185768445610967E-3"/>
-              <c:y val="0.30071959755030625"/>
+              <c:x val="2.5118474773986585E-2"/>
+              <c:y val="0.27947834645669295"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2296,7 +2410,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Demand Charge vs. Billing Month</a:t>
+              <a:t>Demand Cost vs. Billing Month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2619,7 +2733,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Demand Charge [$]</a:t>
+                  <a:t>Demand Cost [$]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2628,8 +2742,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7446777486147566E-3"/>
-              <c:y val="0.28942749343832019"/>
+              <c:x val="2.0263196267133275E-2"/>
+              <c:y val="0.3067886045494313"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2746,26 +2860,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Natural Gas Charge vs. Billing Month</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Monthly Charts'!$V$26</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Natural Gas Cost vs. Billing Month</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3061,33 +3164,22 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Natural Gas Cost [$]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>'Monthly Charts'!$V$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Natural Gas Cost [$]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.2798191892679994E-4"/>
-              <c:y val="0.23429899387576553"/>
+              <c:x val="2.619094488188976E-2"/>
+              <c:y val="0.24124343832020997"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3745,7 +3837,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Total Energy'!$B$5,'Total Energy'!$B$7)</c:f>
+              <c:f>('Total Energy'!$D$6,'Total Energy'!$D$8)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3759,7 +3851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Total Energy'!$D$5,'Total Energy'!$D$7)</c:f>
+              <c:f>('Total Energy'!$F$6,'Total Energy'!$F$8)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4149,7 +4241,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Total Energy'!$B$5:$B$7</c:f>
+              <c:f>'Total Energy'!$D$6:$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4166,7 +4258,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Energy'!$E$5:$E$7</c:f>
+              <c:f>'Total Energy'!$G$6:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4307,7 +4399,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Electricity Charge</c:v>
+            <c:strRef>
+              <c:f>'Monthly Cost'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4451,7 +4551,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Demand Charge</c:v>
+            <c:strRef>
+              <c:f>'Monthly Cost'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4576,7 +4684,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Natural Gas Charge</c:v>
+            <c:strRef>
+              <c:f>'Monthly Cost'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Natural Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -7313,8 +7429,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.5467337416156313E-3"/>
-              <c:y val="0.21105041557305337"/>
+              <c:x val="2.0833333333333332E-2"/>
+              <c:y val="0.20757819335083114"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7786,8 +7902,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4408355205599299E-3"/>
-              <c:y val="0.2651367016622922"/>
+              <c:x val="3.3848242927967336E-2"/>
+              <c:y val="0.25819225721784778"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7904,35 +8020,16 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Natural Gas Usage vs. Billing Month</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Monthly Charts'!$V$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Natural Gas Usage vs. Billing Month</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23707166812481778"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8227,33 +8324,22 @@
         </c:majorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Natural Gas Usage [MMBtu]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>'Monthly Charts'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Natural Gas Usage [MMBtu]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.2101924759405076E-3"/>
-              <c:y val="0.14266431539807525"/>
+              <c:x val="2.3043525809273845E-2"/>
+              <c:y val="0.13919209317585302"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12647,9 +12733,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5486400" cy="3657600"/>
@@ -12680,9 +12766,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5486400" cy="3657600"/>
@@ -12921,7 +13007,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -13020,7 +13106,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -13387,918 +13473,1032 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N985"/>
+  <dimension ref="A1:W985"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="23" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="123" t="s">
+    <row r="1" spans="1:23" ht="20" customHeight="1" thickBot="1">
+      <c r="A1" s="44"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+    </row>
+    <row r="2" spans="1:23" ht="20" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="131" t="str">
+        <f>_xlfn.CONCAT(Q2," Usage and Cost by Month")</f>
+        <v>Natural Gas Usage and Cost by Month</v>
+      </c>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="P2" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="P3" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="20" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="80" t="str">
+        <f>Q2</f>
+        <v>Natural Gas</v>
+      </c>
+      <c r="L4" s="93" t="str">
+        <f>Q2</f>
+        <v>Natural Gas</v>
+      </c>
+      <c r="M4" s="93" t="str">
+        <f>Q2</f>
+        <v>Natural Gas</v>
+      </c>
+      <c r="N4" s="94" t="str">
+        <f>Q2</f>
+        <v>Natural Gas</v>
+      </c>
+      <c r="P4" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="123">
+        <f>VLOOKUP(Q2,P7:W14,MATCH(Q3,P6:W6,0),FALSE)</f>
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="20" customHeight="1">
+      <c r="A5" s="44"/>
+      <c r="B5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" thickTop="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="D5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49" t="s">
+      <c r="F5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="119"/>
+    </row>
+    <row r="6" spans="1:23" ht="20" customHeight="1" thickBot="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49" t="s">
+      <c r="C6" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="L6" s="84" t="str">
+        <f>_xlfn.CONCAT("[",Q3,"]")</f>
+        <v>[Mcf]</v>
+      </c>
+      <c r="M6" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" thickTop="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="91">
+      <c r="P6" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="20" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="69">
         <v>44927</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="49">
         <v>1384234</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="49">
         <v>112187.25</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="49">
         <v>2930</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="49">
         <v>11246.72</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="49">
         <f>H7-D7-F7</f>
         <v>4000.0000000000018</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="49">
         <v>127433.97</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="50">
         <f>C7*0.003412/0.33</f>
         <v>14312.140630303031</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="91">
+      <c r="J7" s="45"/>
+      <c r="K7" s="69">
         <f t="shared" ref="K7:K18" si="0">B7</f>
         <v>44927</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="51">
         <v>36311.129999999997</v>
       </c>
-      <c r="M7" s="57">
-        <f t="shared" ref="M7:M18" si="1">L7*VLOOKUP($L$6,$K$21:$N$24,4,FALSE)</f>
+      <c r="M7" s="51">
+        <f>L7*$Q$4</f>
         <v>37618.330679999999</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="52">
         <v>104545.84</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="93">
+      <c r="P7" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="118">
+        <v>1</v>
+      </c>
+      <c r="R7" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="118">
+        <v>1.036</v>
+      </c>
+      <c r="T7" s="118">
+        <v>0.1036</v>
+      </c>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+    </row>
+    <row r="8" spans="1:23" ht="20" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="70">
         <f>EDATE(B7,1)</f>
         <v>44958</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="53">
         <v>1311914</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="53">
         <v>105810.33</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="53">
         <v>2720</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="53">
         <v>9182.59</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="53">
         <f>H8-D8-F8</f>
         <v>3999.9999999999964</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="53">
         <v>118992.92</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="54">
         <f>C8*0.003412/0.33</f>
         <v>13564.395660606062</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="93">
+      <c r="J8" s="45"/>
+      <c r="K8" s="70">
         <f t="shared" si="0"/>
         <v>44958</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="55">
         <v>30510.85</v>
       </c>
-      <c r="M8" s="61">
-        <f t="shared" si="1"/>
+      <c r="M8" s="55">
+        <f>L8*$Q$4</f>
         <v>31609.240600000001</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="56">
         <v>96610.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="93">
-        <f t="shared" ref="B9:B17" si="2">EDATE(B8,1)</f>
+      <c r="P8" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T8" s="118">
+        <v>0.255</v>
+      </c>
+      <c r="U8" s="118">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+    </row>
+    <row r="9" spans="1:23" ht="20" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="70">
+        <f t="shared" ref="B9:B17" si="1">EDATE(B8,1)</f>
         <v>44986</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="53">
         <v>1402432</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="53">
         <v>113295.70999999999</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="53">
         <v>2950</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="53">
         <v>10833.23</v>
       </c>
-      <c r="G9" s="59">
-        <f t="shared" ref="G9:G17" si="3">H9-D9-F9</f>
+      <c r="G9" s="53">
+        <f t="shared" ref="G9:G17" si="2">H9-D9-F9</f>
         <v>4000.0000000000109</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="53">
         <v>128128.94</v>
       </c>
-      <c r="I9" s="60">
-        <f t="shared" ref="I9:I17" si="4">C9*0.003412/0.33</f>
+      <c r="I9" s="54">
+        <f t="shared" ref="I9:I17" si="3">C9*0.003412/0.33</f>
         <v>14500.296921212121</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="93">
+      <c r="J9" s="45"/>
+      <c r="K9" s="70">
         <f t="shared" si="0"/>
         <v>44986</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="55">
         <v>27991.1</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="55">
+        <f t="shared" ref="M9:M17" si="4">L9*$Q$4</f>
+        <v>28998.779599999998</v>
+      </c>
+      <c r="N9" s="56">
+        <v>89239.59</v>
+      </c>
+      <c r="P9" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118">
+        <v>3.2</v>
+      </c>
+      <c r="T9" s="118">
+        <v>0.32</v>
+      </c>
+      <c r="U9" s="118">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="W9" s="118"/>
+    </row>
+    <row r="10" spans="1:23" ht="20" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="70">
         <f t="shared" si="1"/>
-        <v>28998.779599999998</v>
-      </c>
-      <c r="N9" s="62">
-        <v>89239.59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="93">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="53">
+        <v>2358602</v>
+      </c>
+      <c r="D10" s="53">
+        <v>190071.66</v>
+      </c>
+      <c r="E10" s="53">
+        <v>2556</v>
+      </c>
+      <c r="F10" s="53">
+        <v>10877.58</v>
+      </c>
+      <c r="G10" s="53">
         <f t="shared" si="2"/>
-        <v>45017</v>
-      </c>
-      <c r="C10" s="59">
-        <v>2358602</v>
-      </c>
-      <c r="D10" s="59">
-        <v>190071.66</v>
-      </c>
-      <c r="E10" s="59">
-        <v>2556</v>
-      </c>
-      <c r="F10" s="59">
-        <v>10877.58</v>
-      </c>
-      <c r="G10" s="59">
+        <v>3999.9999999999873</v>
+      </c>
+      <c r="H10" s="53">
+        <v>204949.24</v>
+      </c>
+      <c r="I10" s="54">
         <f t="shared" si="3"/>
-        <v>3999.9999999999873</v>
-      </c>
-      <c r="H10" s="59">
-        <v>204949.24</v>
-      </c>
-      <c r="I10" s="60">
-        <f t="shared" si="4"/>
         <v>24386.515224242423</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="93">
+      <c r="J10" s="45"/>
+      <c r="K10" s="70">
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="55">
         <v>33437.660000000003</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="55">
+        <f t="shared" si="4"/>
+        <v>34641.415760000004</v>
+      </c>
+      <c r="N10" s="56">
+        <v>99192.69</v>
+      </c>
+      <c r="P10" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="U10" s="118">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+    </row>
+    <row r="11" spans="1:23" ht="20" customHeight="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="70">
         <f t="shared" si="1"/>
-        <v>34641.415760000004</v>
-      </c>
-      <c r="N10" s="62">
-        <v>99192.69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="93">
+        <v>45047</v>
+      </c>
+      <c r="C11" s="53">
+        <v>1338996</v>
+      </c>
+      <c r="D11" s="53">
+        <v>107034.78</v>
+      </c>
+      <c r="E11" s="53">
+        <v>2795.1881200490484</v>
+      </c>
+      <c r="F11" s="53">
+        <v>11915.23</v>
+      </c>
+      <c r="G11" s="53">
         <f t="shared" si="2"/>
-        <v>45047</v>
-      </c>
-      <c r="C11" s="59">
-        <v>1338996</v>
-      </c>
-      <c r="D11" s="59">
-        <v>107034.78</v>
-      </c>
-      <c r="E11" s="59">
-        <v>2795.1881200490484</v>
-      </c>
-      <c r="F11" s="59">
-        <v>11915.23</v>
-      </c>
-      <c r="G11" s="59">
+        <v>3999.9900000000016</v>
+      </c>
+      <c r="H11" s="53">
+        <v>122950</v>
+      </c>
+      <c r="I11" s="54">
         <f t="shared" si="3"/>
-        <v>3999.9900000000016</v>
-      </c>
-      <c r="H11" s="59">
-        <v>122950</v>
-      </c>
-      <c r="I11" s="60">
-        <f t="shared" si="4"/>
         <v>13844.407127272729</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="93">
+      <c r="J11" s="45"/>
+      <c r="K11" s="70">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="55">
         <v>32212.62</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="55">
+        <f t="shared" si="4"/>
+        <v>33372.274319999997</v>
+      </c>
+      <c r="N11" s="56">
+        <v>95129.01</v>
+      </c>
+      <c r="P11" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V11" s="118"/>
+      <c r="W11" s="117"/>
+    </row>
+    <row r="12" spans="1:23" ht="20" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="70">
         <f t="shared" si="1"/>
-        <v>33372.274319999997</v>
-      </c>
-      <c r="N11" s="62">
-        <v>95129.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="93">
+        <v>45078</v>
+      </c>
+      <c r="C12" s="53">
+        <v>1338142</v>
+      </c>
+      <c r="D12" s="53">
+        <v>109757.79000000001</v>
+      </c>
+      <c r="E12" s="53">
+        <v>2795.9760558395405</v>
+      </c>
+      <c r="F12" s="53">
+        <v>11415.33</v>
+      </c>
+      <c r="G12" s="53">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="C12" s="59">
-        <v>1338142</v>
-      </c>
-      <c r="D12" s="59">
-        <v>109757.79000000001</v>
-      </c>
-      <c r="E12" s="59">
-        <v>2795.9760558395405</v>
-      </c>
-      <c r="F12" s="59">
-        <v>11415.33</v>
-      </c>
-      <c r="G12" s="59">
+        <v>3999.9999999999873</v>
+      </c>
+      <c r="H12" s="53">
+        <v>125173.12</v>
+      </c>
+      <c r="I12" s="54">
         <f t="shared" si="3"/>
-        <v>3999.9999999999873</v>
-      </c>
-      <c r="H12" s="59">
-        <v>125173.12</v>
-      </c>
-      <c r="I12" s="60">
-        <f t="shared" si="4"/>
         <v>13835.577284848485</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="93">
+      <c r="J12" s="45"/>
+      <c r="K12" s="70">
         <f t="shared" si="0"/>
         <v>45078</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="55">
         <v>25238.78</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="55">
+        <f t="shared" si="4"/>
+        <v>26147.376079999998</v>
+      </c>
+      <c r="N12" s="56">
+        <v>77783.38</v>
+      </c>
+      <c r="P12" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="V12" s="118"/>
+      <c r="W12" s="117"/>
+    </row>
+    <row r="13" spans="1:23" ht="20" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="70">
         <f t="shared" si="1"/>
-        <v>26147.376079999998</v>
-      </c>
-      <c r="N12" s="62">
-        <v>77783.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="93">
+        <v>45108</v>
+      </c>
+      <c r="C13" s="53">
+        <v>1456049</v>
+      </c>
+      <c r="D13" s="53">
+        <v>116930.2</v>
+      </c>
+      <c r="E13" s="53">
+        <v>2811.4235985488122</v>
+      </c>
+      <c r="F13" s="53">
+        <v>16318.08</v>
+      </c>
+      <c r="G13" s="53">
         <f t="shared" si="2"/>
-        <v>45108</v>
-      </c>
-      <c r="C13" s="59">
-        <v>1456049</v>
-      </c>
-      <c r="D13" s="59">
-        <v>116930.2</v>
-      </c>
-      <c r="E13" s="59">
-        <v>2811.4235985488122</v>
-      </c>
-      <c r="F13" s="59">
-        <v>16318.08</v>
-      </c>
-      <c r="G13" s="59">
+        <v>4000.0000000000018</v>
+      </c>
+      <c r="H13" s="53">
+        <v>137248.28</v>
+      </c>
+      <c r="I13" s="54">
         <f t="shared" si="3"/>
-        <v>4000.0000000000018</v>
-      </c>
-      <c r="H13" s="59">
-        <v>137248.28</v>
-      </c>
-      <c r="I13" s="60">
-        <f t="shared" si="4"/>
         <v>15054.664206060605</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="93">
+      <c r="J13" s="45"/>
+      <c r="K13" s="70">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="55">
         <v>25523.07</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="55">
+        <f t="shared" si="4"/>
+        <v>26441.900519999999</v>
+      </c>
+      <c r="N13" s="56">
+        <v>79413.899999999994</v>
+      </c>
+      <c r="P13" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118">
+        <v>0.152</v>
+      </c>
+      <c r="V13" s="118"/>
+      <c r="W13" s="117"/>
+    </row>
+    <row r="14" spans="1:23" ht="20" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="70">
         <f t="shared" si="1"/>
-        <v>26441.900519999999</v>
-      </c>
-      <c r="N13" s="62">
-        <v>79413.899999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="93">
+        <v>45139</v>
+      </c>
+      <c r="C14" s="53">
+        <v>1464718</v>
+      </c>
+      <c r="D14" s="53">
+        <v>116021.33</v>
+      </c>
+      <c r="E14" s="53">
+        <v>2815.6428364697422</v>
+      </c>
+      <c r="F14" s="53">
+        <v>16362.32</v>
+      </c>
+      <c r="G14" s="53">
         <f t="shared" si="2"/>
-        <v>45139</v>
-      </c>
-      <c r="C14" s="59">
-        <v>1464718</v>
-      </c>
-      <c r="D14" s="59">
-        <v>116021.33</v>
-      </c>
-      <c r="E14" s="59">
-        <v>2815.6428364697422</v>
-      </c>
-      <c r="F14" s="59">
-        <v>16362.32</v>
-      </c>
-      <c r="G14" s="59">
+        <v>3999.9999999999927</v>
+      </c>
+      <c r="H14" s="53">
+        <v>136383.65</v>
+      </c>
+      <c r="I14" s="54">
         <f t="shared" si="3"/>
-        <v>3999.9999999999927</v>
-      </c>
-      <c r="H14" s="59">
-        <v>136383.65</v>
-      </c>
-      <c r="I14" s="60">
-        <f t="shared" si="4"/>
         <v>15144.296412121212</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="93">
+      <c r="J14" s="45"/>
+      <c r="K14" s="70">
         <f t="shared" si="0"/>
         <v>45139</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="55">
         <v>27372.79</v>
       </c>
-      <c r="M14" s="61">
+      <c r="M14" s="55">
+        <f t="shared" si="4"/>
+        <v>28358.210440000003</v>
+      </c>
+      <c r="N14" s="56">
+        <v>86054.1</v>
+      </c>
+      <c r="P14" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118">
+        <v>2800000</v>
+      </c>
+      <c r="W14" s="118">
+        <v>83.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="20" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="70">
         <f t="shared" si="1"/>
-        <v>28358.210440000003</v>
-      </c>
-      <c r="N14" s="62">
-        <v>86054.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="93">
+        <v>45170</v>
+      </c>
+      <c r="C15" s="53">
+        <v>1293209</v>
+      </c>
+      <c r="D15" s="53">
+        <v>105996.93</v>
+      </c>
+      <c r="E15" s="53">
+        <v>2739</v>
+      </c>
+      <c r="F15" s="53">
+        <v>11909.08</v>
+      </c>
+      <c r="G15" s="53">
         <f t="shared" si="2"/>
-        <v>45170</v>
-      </c>
-      <c r="C15" s="59">
-        <v>1293209</v>
-      </c>
-      <c r="D15" s="59">
-        <v>105996.93</v>
-      </c>
-      <c r="E15" s="59">
-        <v>2739</v>
-      </c>
-      <c r="F15" s="59">
-        <v>11909.08</v>
-      </c>
-      <c r="G15" s="59">
+        <v>4000.0000000000164</v>
+      </c>
+      <c r="H15" s="53">
+        <v>121906.01000000001</v>
+      </c>
+      <c r="I15" s="54">
         <f t="shared" si="3"/>
-        <v>4000.0000000000164</v>
-      </c>
-      <c r="H15" s="59">
-        <v>121906.01000000001</v>
-      </c>
-      <c r="I15" s="60">
-        <f t="shared" si="4"/>
         <v>13370.997296969697</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="93">
+      <c r="J15" s="45"/>
+      <c r="K15" s="70">
         <f t="shared" si="0"/>
         <v>45170</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="55">
         <v>25227.72</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="55">
+        <f t="shared" si="4"/>
+        <v>26135.917920000004</v>
+      </c>
+      <c r="N15" s="56">
+        <v>79062.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="20" customHeight="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="70">
         <f t="shared" si="1"/>
-        <v>26135.917920000004</v>
-      </c>
-      <c r="N15" s="62">
-        <v>79062.47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="93">
+        <v>45200</v>
+      </c>
+      <c r="C16" s="53">
+        <v>1384787.9878681675</v>
+      </c>
+      <c r="D16" s="53">
+        <v>112845.42</v>
+      </c>
+      <c r="E16" s="53">
+        <v>2793.784770922698</v>
+      </c>
+      <c r="F16" s="53">
+        <v>10557.39</v>
+      </c>
+      <c r="G16" s="53">
         <f t="shared" si="2"/>
-        <v>45200</v>
-      </c>
-      <c r="C16" s="59">
-        <v>1384787.9878681675</v>
-      </c>
-      <c r="D16" s="59">
-        <v>112845.42</v>
-      </c>
-      <c r="E16" s="59">
-        <v>2793.784770922698</v>
-      </c>
-      <c r="F16" s="59">
-        <v>10557.39</v>
-      </c>
-      <c r="G16" s="59">
+        <v>4000</v>
+      </c>
+      <c r="H16" s="53">
+        <v>127402.81</v>
+      </c>
+      <c r="I16" s="54">
         <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-      <c r="H16" s="59">
-        <v>127402.81</v>
-      </c>
-      <c r="I16" s="60">
-        <f t="shared" si="4"/>
         <v>14317.868529109659</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="93">
+      <c r="J16" s="45"/>
+      <c r="K16" s="70">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="55">
         <v>34904.32</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="55">
+        <f t="shared" si="4"/>
+        <v>36160.875520000001</v>
+      </c>
+      <c r="N16" s="56">
+        <v>105077.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="20" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="70">
         <f t="shared" si="1"/>
-        <v>36160.875520000001</v>
-      </c>
-      <c r="N16" s="62">
-        <v>105077.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="93">
+        <v>45231</v>
+      </c>
+      <c r="C17" s="53">
+        <v>1458890</v>
+      </c>
+      <c r="D17" s="53">
+        <v>112862.44</v>
+      </c>
+      <c r="E17" s="53">
+        <v>2788.1916668673757</v>
+      </c>
+      <c r="F17" s="53">
+        <v>9342.08</v>
+      </c>
+      <c r="G17" s="53">
         <f t="shared" si="2"/>
-        <v>45231</v>
-      </c>
-      <c r="C17" s="59">
-        <v>1458890</v>
-      </c>
-      <c r="D17" s="59">
-        <v>112862.44</v>
-      </c>
-      <c r="E17" s="59">
-        <v>2788.1916668673757</v>
-      </c>
-      <c r="F17" s="59">
-        <v>9342.08</v>
-      </c>
-      <c r="G17" s="59">
+        <v>3999.9999999999873</v>
+      </c>
+      <c r="H17" s="53">
+        <v>126204.51999999999</v>
+      </c>
+      <c r="I17" s="54">
         <f t="shared" si="3"/>
-        <v>3999.9999999999873</v>
-      </c>
-      <c r="H17" s="59">
-        <v>126204.51999999999</v>
-      </c>
-      <c r="I17" s="60">
-        <f t="shared" si="4"/>
         <v>15084.038424242424</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="93">
+      <c r="J17" s="45"/>
+      <c r="K17" s="70">
         <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="55">
         <v>39036.019999999997</v>
       </c>
-      <c r="M17" s="61">
-        <f t="shared" si="1"/>
+      <c r="M17" s="55">
+        <f t="shared" si="4"/>
         <v>40441.316719999995</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="56">
         <v>118518.95</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20" customHeight="1" thickBot="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="92">
+      <c r="A18" s="44"/>
+      <c r="B18" s="86">
         <f>EDATE(B7,11)</f>
         <v>45261</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="87">
         <v>1430891</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="87">
         <v>116321.57</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="87">
         <v>2799.2014498729936</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="87">
         <v>11454.62</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="87">
         <f>H18-D18-F18</f>
         <v>3999.9999999999945</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="87">
         <v>131776.19</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="88">
         <f>C18*0.003412/0.33</f>
         <v>14794.545733333332</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="92">
+      <c r="J18" s="45"/>
+      <c r="K18" s="86">
         <f t="shared" si="0"/>
         <v>45261</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="95">
         <v>40927.550000000003</v>
       </c>
-      <c r="M18" s="65">
-        <f t="shared" si="1"/>
+      <c r="M18" s="95">
+        <f>L18*$Q$4</f>
         <v>42400.941800000008</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="96">
         <v>128236.23</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="1:14" ht="20" customHeight="1" thickBot="1">
+      <c r="A19" s="44"/>
+      <c r="B19" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="90">
         <f t="shared" ref="C19:I19" si="5">SUM(C7:C18)</f>
         <v>17622864.987868167</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="90">
         <f t="shared" si="5"/>
         <v>1419135.41</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="90">
         <f t="shared" si="5"/>
         <v>33494.408498570214</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="91">
         <f t="shared" si="5"/>
         <v>141414.25</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="91">
         <f t="shared" si="5"/>
         <v>47999.989999999969</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="90">
         <f t="shared" si="5"/>
         <v>1608549.6500000001</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="92">
         <f t="shared" si="5"/>
         <v>182209.74345032181</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="72">
+      <c r="J19" s="45"/>
+      <c r="K19" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="98">
         <f t="shared" ref="L19:N19" si="6">SUM(L7:L18)</f>
         <v>378693.61</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="98">
         <f t="shared" si="6"/>
         <v>392326.57996</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="99">
         <f t="shared" si="6"/>
         <v>1158864.29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="78"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
     </row>
     <row r="21" spans="1:14" ht="20" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="79">
+      <c r="A21" s="44"/>
+      <c r="B21" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="128"/>
+      <c r="D21" s="62">
         <f>D19/C19</f>
         <v>8.0528075938671326E-2</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="82">
-        <v>1</v>
-      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:14" ht="20" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="83">
+      <c r="A22" s="44"/>
+      <c r="B22" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="64">
         <f>D19/I19</f>
         <v>7.7884715884412463</v>
       </c>
-      <c r="E22" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="81" t="s">
+      <c r="E22" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="85">
-        <v>0.1</v>
-      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:14" ht="20" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="86">
+      <c r="A23" s="44"/>
+      <c r="B23" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="66">
         <f>F19/E19</f>
         <v>4.2220255958852535</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" s="87">
-        <v>1.036</v>
-      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:14" ht="20" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="83">
+      <c r="A24" s="44"/>
+      <c r="B24" s="127" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( Q2, " Cost :")</f>
+        <v>Natural Gas Cost :</v>
+      </c>
+      <c r="C24" s="128"/>
+      <c r="D24" s="64">
         <f>N19/M19</f>
         <v>2.9538255861179556</v>
       </c>
-      <c r="E24" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="89">
-        <v>0.1036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1">
+      <c r="E24" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" ht="20" customHeight="1">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -17942,14 +18142,20 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{9747AF16-8BFF-3245-86C1-E41D734FE8BA}">
+      <formula1>$P$7:$P$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3" xr:uid="{A9E85E09-DFF8-F948-9A49-39F0093E4115}">
+      <formula1>$Q$6:$W$6</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6" xr:uid="{920FF90C-24A3-0248-AF94-6BA43000F95D}">
-      <formula1>K21:K24</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="47" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L000000Lehigh University IAC&amp;C000000LE0497&amp;R000000Page: &amp;P/</oddFooter>
   </headerFooter>
@@ -17983,18 +18189,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A1" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="A1" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
     </row>
     <row r="2" spans="1:24" ht="36.75" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1">
@@ -18006,24 +18212,24 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11">
         <v>5599.0000000000009</v>
@@ -18042,7 +18248,7 @@
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17">
         <v>5613</v>
@@ -18061,7 +18267,7 @@
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17">
         <v>5124</v>
@@ -18080,7 +18286,7 @@
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="17">
         <v>5214</v>
@@ -18099,7 +18305,7 @@
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="17">
         <v>3401</v>
@@ -18116,7 +18322,7 @@
     </row>
     <row r="10" spans="1:24" ht="12.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="17">
         <v>3704.0000000000009</v>
@@ -18135,7 +18341,7 @@
     </row>
     <row r="11" spans="1:24" ht="12.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="17">
         <v>3465.9999999999995</v>
@@ -18154,7 +18360,7 @@
     </row>
     <row r="12" spans="1:24" ht="12.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="17">
         <v>6811.9999999999991</v>
@@ -18173,7 +18379,7 @@
     </row>
     <row r="13" spans="1:24" ht="12.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="17">
         <v>7640.9999999999991</v>
@@ -18193,7 +18399,7 @@
     </row>
     <row r="14" spans="1:24" ht="12.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="17">
         <v>0</v>
@@ -18212,7 +18418,7 @@
     </row>
     <row r="15" spans="1:24" ht="12.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="17">
         <v>0</v>
@@ -18231,7 +18437,7 @@
     </row>
     <row r="16" spans="1:24" ht="12.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="22">
         <v>0</v>
@@ -18249,7 +18455,7 @@
     </row>
     <row r="17" spans="1:24" ht="12.75" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="25">
         <f t="shared" ref="B17:D17" si="1">SUM(B5:B16)</f>
@@ -18275,16 +18481,16 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A19" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="136"/>
+      <c r="A19" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="144"/>
       <c r="C19" s="35">
         <f>D17/C17</f>
         <v>4.7981942714819432</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="32"/>
@@ -19360,48 +19566,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A2:A1002"/>
+  <dimension ref="V1:V1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="1" spans="22:22" ht="15" customHeight="1">
+      <c r="V1" t="str">
+        <f>_xlfn.CONCAT('Raw Data'!Q2," Usage vs. Billing Month")</f>
+        <v>Natural Gas Usage vs. Billing Month</v>
+      </c>
+    </row>
+    <row r="2" spans="22:22" ht="12.75" customHeight="1">
+      <c r="V2" t="str">
+        <f>_xlfn.CONCAT('Raw Data'!Q2," Usage [MMBtu]")</f>
+        <v>Natural Gas Usage [MMBtu]</v>
+      </c>
+    </row>
+    <row r="3" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="4" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="5" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="6" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="7" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="8" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="9" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="10" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="11" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="12" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="13" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="14" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="15" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="16" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="17" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="18" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="19" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="20" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="21" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="22" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="23" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="24" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="25" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="26" spans="22:22" ht="12.75" customHeight="1">
+      <c r="V26" t="str">
+        <f>_xlfn.CONCAT('Raw Data'!Q2," Cost vs. Billing Month")</f>
+        <v>Natural Gas Cost vs. Billing Month</v>
+      </c>
+    </row>
+    <row r="27" spans="22:22" ht="12.75" customHeight="1">
+      <c r="V27" t="str">
+        <f>_xlfn.CONCAT('Raw Data'!Q2," Cost [$]")</f>
+        <v>Natural Gas Cost [$]</v>
+      </c>
+    </row>
+    <row r="28" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="29" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="30" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="31" spans="22:22" ht="12.75" customHeight="1"/>
+    <row r="32" spans="22:22" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -20405,186 +20631,186 @@
     <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="B5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="41">
         <f>'Raw Data'!D19</f>
         <v>1419135.41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="42">
+      <c r="A6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="40">
         <f>427200+78000+58650</f>
         <v>563850</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <f>'Raw Data'!F19</f>
         <v>141414.25</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="40">
         <f>40870+8672+6031</f>
         <v>55573</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="42">
+      <c r="A7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="40">
         <f>475200+91200+64050</f>
         <v>630450</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="42">
         <f>'N.Gas Value'!D17</f>
         <v>22347.11</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="40">
         <f>6461+945+44278</f>
         <v>51684</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="42">
+      <c r="A8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="40">
         <f>393600+73600+46500</f>
         <v>513700</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="F8" s="42">
+      <c r="C8" s="41"/>
+      <c r="F8" s="40">
         <f>5076+8503+38430</f>
         <v>52009</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="42">
+      <c r="A9" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="40">
         <f>373200+81200+44400</f>
         <v>498800</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="40">
         <f>4644+8617+34364</f>
         <v>47625</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="42">
+      <c r="A10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="40">
         <f>380400+79200+38250</f>
         <v>497850</v>
       </c>
       <c r="C10" s="20">
-        <f>'Total Energy'!D5</f>
+        <f>'Total Energy'!F6</f>
         <v>182209.74345032181</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="F10" s="42">
+      <c r="D10" s="40"/>
+      <c r="F10" s="40">
         <f>4844+9778+41495</f>
         <v>56117</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="42">
+      <c r="A11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="40">
         <f>307200+62400+31350</f>
         <v>400950</v>
       </c>
       <c r="C11" s="20">
-        <f>'Total Energy'!D7</f>
+        <f>'Total Energy'!F8</f>
         <v>392326.57996</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="F11" s="42">
+      <c r="D11" s="40"/>
+      <c r="F11" s="40">
         <f>4361+8575+36175</f>
         <v>49111</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A12" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="42">
+      <c r="A12" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="40">
         <f>366000+76000+45450</f>
         <v>487450</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="F12" s="42">
+      <c r="F12" s="40">
         <f>5643+9642+40925</f>
         <v>56210</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="42">
+      <c r="A13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="40">
         <f>334800+67600+43200</f>
         <v>445600</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="40">
         <f>5491+8846+38412</f>
         <v>52749</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="42">
+      <c r="A14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="40">
         <f>318000+62800+36600</f>
         <v>417400</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="40">
         <f>4836+8296+36411</f>
         <v>49543</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="42">
+      <c r="A15" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="40">
         <f>271200+53600+31500</f>
         <v>356300</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="40">
         <f>4264+6917+31183</f>
         <v>42364</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="42">
+      <c r="A16" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="40">
         <f>249600+50000+26700</f>
         <v>326300</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="40">
         <f>4899+6841+29985</f>
         <v>41725</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="42">
+      <c r="A17" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="40">
         <f>343200+64800+34950</f>
         <v>442950</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="40">
         <f>4899+8225+37786</f>
         <v>50910</v>
       </c>
@@ -21587,55 +21813,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T989"/>
+  <dimension ref="A1:S991"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="20" width="8.83203125" customWidth="1"/>
+    <col min="1" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-    </row>
-    <row r="2" spans="1:20" ht="20" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="138" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="1" spans="1:19" ht="20" customHeight="1">
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+    </row>
+    <row r="2" spans="1:19" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+    </row>
+    <row r="3" spans="1:19" ht="20" customHeight="1">
+      <c r="D3" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21648,24 +21856,12 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="20" customHeight="1" thickBot="1">
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -21678,27 +21874,20 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1" thickTop="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="57">
-        <f>'Raw Data'!C19</f>
-        <v>17622864.987868167</v>
-      </c>
-      <c r="D5" s="57">
-        <f>'Raw Data'!I19</f>
-        <v>182209.74345032181</v>
-      </c>
-      <c r="E5" s="58">
-        <f>'Raw Data'!D19</f>
-        <v>1419135.41</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="20" customHeight="1" thickBot="1">
+      <c r="D5" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>58</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -21711,25 +21900,23 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="20" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="106">
-        <f>'Raw Data'!F19</f>
-        <v>141414.25</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="20" customHeight="1">
+      <c r="D6" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51">
+        <f>'Raw Data'!C19</f>
+        <v>17622864.987868167</v>
+      </c>
+      <c r="F6" s="51">
+        <f>'Raw Data'!I19</f>
+        <v>182209.74345032181</v>
+      </c>
+      <c r="G6" s="52">
+        <f>'Raw Data'!D19</f>
+        <v>1419135.41</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -21742,26 +21929,21 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="20" customHeight="1" thickBot="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="65">
-        <f>'Raw Data'!M19</f>
-        <v>392326.57996</v>
-      </c>
-      <c r="E7" s="66">
-        <f>'Raw Data'!N19</f>
-        <v>1158864.29</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="20" customHeight="1">
+      <c r="D7" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="77">
+        <f>'Raw Data'!F19</f>
+        <v>141414.25</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -21774,26 +21956,23 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="72">
-        <f t="shared" ref="D8:E8" si="0">SUM(D5:D7)</f>
-        <v>574536.32341032184</v>
-      </c>
-      <c r="E8" s="73">
-        <f t="shared" si="0"/>
-        <v>2719413.95</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="20" customHeight="1" thickBot="1">
+      <c r="D8" s="112" t="str">
+        <f>'Raw Data'!Q2</f>
+        <v>Natural Gas</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="95">
+        <f>'Raw Data'!M19</f>
+        <v>392326.57996</v>
+      </c>
+      <c r="G8" s="96">
+        <f>'Raw Data'!N19</f>
+        <v>1158864.29</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -21806,16 +21985,22 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="20" customHeight="1" thickBot="1">
+      <c r="D9" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="98">
+        <f t="shared" ref="F9:G9" si="0">SUM(F6:F8)</f>
+        <v>574536.32341032184</v>
+      </c>
+      <c r="G9" s="99">
+        <f t="shared" si="0"/>
+        <v>2719413.95</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -21828,9 +22013,8 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:19" ht="20" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -21850,9 +22034,8 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:19" ht="20" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -21872,9 +22055,8 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:19" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -21894,9 +22076,8 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:19" ht="20" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -21916,9 +22097,8 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:19" ht="20" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -21938,9 +22118,8 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:19" ht="20" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -21960,9 +22139,8 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:19" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -21982,9 +22160,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:19" ht="20" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -22004,9 +22181,8 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:19" ht="20" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -22026,9 +22202,8 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:19" ht="20" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -22048,9 +22223,8 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:19" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -22070,9 +22244,8 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:19" ht="20" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -22092,9 +22265,8 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:19" ht="20" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -22114,9 +22286,8 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:19" ht="20" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -22136,9 +22307,8 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:19" ht="20" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -22158,9 +22328,8 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:19" ht="20" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -22180,9 +22349,8 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:19" ht="20" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -22202,9 +22370,8 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:19" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -22224,9 +22391,8 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:19" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -22246,9 +22412,8 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:19" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -22268,9 +22433,8 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:19" ht="12.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -22290,9 +22454,8 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:19" ht="12.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -22312,9 +22475,8 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:19" ht="12.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -22334,9 +22496,8 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:19" ht="12.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -22356,9 +22517,8 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:19" ht="12.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -22378,9 +22538,8 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:19" ht="12.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -22400,9 +22559,8 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:19" ht="12.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -22422,9 +22580,8 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:19" ht="12.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -22444,17 +22601,12 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:19" ht="12.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -22466,17 +22618,12 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:19" ht="12.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -22488,17 +22635,12 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:19" ht="12.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -22510,17 +22652,12 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:19" ht="12.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -22532,17 +22669,12 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:19" ht="12.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -22554,17 +22686,12 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:19" ht="12.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -22576,17 +22703,12 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:19" ht="12.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -22598,9 +22720,8 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:19" ht="12.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -22620,9 +22741,8 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:19" ht="12.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -22642,9 +22762,8 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:19" ht="12.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -22664,9 +22783,8 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:19" ht="12.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -22686,9 +22804,8 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:19" ht="12.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -22708,9 +22825,8 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:19" ht="12.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -22730,9 +22846,8 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:19" ht="12.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -22752,9 +22867,8 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:19" ht="12.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -22774,9 +22888,8 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:19" ht="12.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -22796,9 +22909,8 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:19" ht="12.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -22818,9 +22930,8 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:19" ht="12.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -22840,9 +22951,8 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:19" ht="12.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -22862,9 +22972,8 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:19" ht="12.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -22884,9 +22993,8 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:19" ht="12.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -22906,9 +23014,8 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:19" ht="12.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -22928,9 +23035,8 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:19" ht="12.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -22950,9 +23056,8 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:19" ht="12.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -22972,9 +23077,8 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:19" ht="12.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -22994,9 +23098,8 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-    </row>
-    <row r="63" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:19" ht="12.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -23016,9 +23119,8 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:19" ht="12.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -23038,9 +23140,8 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:19" ht="12.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -23060,9 +23161,8 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:19" ht="12.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -23082,9 +23182,8 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:19" ht="12.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -23104,9 +23203,8 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:19" ht="12.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -23126,9 +23224,8 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:19" ht="12.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -23148,9 +23245,8 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-    </row>
-    <row r="70" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:19" ht="12.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -23170,9 +23266,8 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-    </row>
-    <row r="71" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:19" ht="12.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -23192,9 +23287,8 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-    </row>
-    <row r="72" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:19" ht="12.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -23214,9 +23308,8 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-    </row>
-    <row r="73" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:19" ht="12.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -23236,9 +23329,8 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-    </row>
-    <row r="74" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:19" ht="12.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -23258,9 +23350,8 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:19" ht="12.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -23280,9 +23371,8 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:19" ht="12.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -23302,9 +23392,8 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:19" ht="12.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -23324,9 +23413,8 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:19" ht="12.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -23346,9 +23434,8 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-    </row>
-    <row r="79" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:19" ht="12.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -23368,9 +23455,8 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:19" ht="12.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -23390,9 +23476,8 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:19" ht="12.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -23412,9 +23497,8 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-    </row>
-    <row r="82" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:19" ht="12.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -23434,9 +23518,8 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-    </row>
-    <row r="83" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:19" ht="12.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -23456,9 +23539,8 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-    </row>
-    <row r="84" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:19" ht="12.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -23478,9 +23560,8 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:19" ht="12.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -23500,9 +23581,8 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-    </row>
-    <row r="86" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:19" ht="12.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -23522,9 +23602,8 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-    </row>
-    <row r="87" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:19" ht="12.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -23544,9 +23623,8 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-    </row>
-    <row r="88" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:19" ht="12.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -23566,9 +23644,8 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-    </row>
-    <row r="89" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:19" ht="12.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -23588,9 +23665,8 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-    </row>
-    <row r="90" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:19" ht="12.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -23610,9 +23686,8 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-    </row>
-    <row r="91" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:19" ht="12.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -23632,9 +23707,8 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-    </row>
-    <row r="92" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:19" ht="12.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -23654,9 +23728,8 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-    </row>
-    <row r="93" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:19" ht="12.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -23676,9 +23749,8 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-    </row>
-    <row r="94" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:19" ht="12.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -23698,9 +23770,8 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-    </row>
-    <row r="95" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:19" ht="12.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -23720,9 +23791,8 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-    </row>
-    <row r="96" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:19" ht="12.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -23742,9 +23812,8 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-    </row>
-    <row r="97" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:19" ht="12.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -23764,9 +23833,8 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-    </row>
-    <row r="98" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="98" spans="1:19" ht="12.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -23786,9 +23854,8 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-    </row>
-    <row r="99" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="99" spans="1:19" ht="12.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -23808,9 +23875,8 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-    </row>
-    <row r="100" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="100" spans="1:19" ht="12.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -23830,9 +23896,8 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-    </row>
-    <row r="101" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="101" spans="1:19" ht="12.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -23852,9 +23917,8 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-    </row>
-    <row r="102" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="102" spans="1:19" ht="12.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -23874,9 +23938,8 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-    </row>
-    <row r="103" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="103" spans="1:19" ht="12.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -23896,9 +23959,8 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-    </row>
-    <row r="104" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="104" spans="1:19" ht="12.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -23918,9 +23980,8 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-    </row>
-    <row r="105" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="105" spans="1:19" ht="12.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -23940,9 +24001,8 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-    </row>
-    <row r="106" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:19" ht="12.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -23962,9 +24022,8 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-    </row>
-    <row r="107" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="107" spans="1:19" ht="12.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -23984,9 +24043,8 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-    </row>
-    <row r="108" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:19" ht="12.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -24006,9 +24064,8 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-    </row>
-    <row r="109" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="109" spans="1:19" ht="12.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -24028,9 +24085,8 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-    </row>
-    <row r="110" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="110" spans="1:19" ht="12.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -24050,9 +24106,8 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-    </row>
-    <row r="111" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="111" spans="1:19" ht="12.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -24072,9 +24127,8 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-    </row>
-    <row r="112" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="112" spans="1:19" ht="12.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -24094,9 +24148,8 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-    </row>
-    <row r="113" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="113" spans="1:19" ht="12.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -24116,9 +24169,8 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-    </row>
-    <row r="114" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="114" spans="1:19" ht="12.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -24138,9 +24190,8 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-    </row>
-    <row r="115" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="115" spans="1:19" ht="12.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -24160,9 +24211,8 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-    </row>
-    <row r="116" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="116" spans="1:19" ht="12.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -24182,9 +24232,8 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-    </row>
-    <row r="117" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:19" ht="12.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -24204,9 +24253,8 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-    </row>
-    <row r="118" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="118" spans="1:19" ht="12.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -24226,9 +24274,8 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-    </row>
-    <row r="119" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="119" spans="1:19" ht="12.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -24248,9 +24295,8 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-    </row>
-    <row r="120" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="120" spans="1:19" ht="12.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -24270,9 +24316,8 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-    </row>
-    <row r="121" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="121" spans="1:19" ht="12.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -24292,9 +24337,8 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-    </row>
-    <row r="122" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="122" spans="1:19" ht="12.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -24314,9 +24358,8 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-    </row>
-    <row r="123" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="123" spans="1:19" ht="12.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -24336,9 +24379,8 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-    </row>
-    <row r="124" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="124" spans="1:19" ht="12.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -24358,9 +24400,8 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-    </row>
-    <row r="125" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:19" ht="12.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -24380,9 +24421,8 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-    </row>
-    <row r="126" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="126" spans="1:19" ht="12.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -24402,9 +24442,8 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-    </row>
-    <row r="127" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="127" spans="1:19" ht="12.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -24424,9 +24463,8 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-    </row>
-    <row r="128" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="128" spans="1:19" ht="12.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -24446,9 +24484,8 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-    </row>
-    <row r="129" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="129" spans="1:19" ht="12.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -24468,9 +24505,8 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-    </row>
-    <row r="130" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:19" ht="12.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -24490,9 +24526,8 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-    </row>
-    <row r="131" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:19" ht="12.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -24512,9 +24547,8 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-    </row>
-    <row r="132" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:19" ht="12.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -24534,9 +24568,8 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-    </row>
-    <row r="133" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="133" spans="1:19" ht="12.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -24556,9 +24589,8 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-    </row>
-    <row r="134" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:19" ht="12.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -24578,9 +24610,8 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-    </row>
-    <row r="135" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:19" ht="12.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -24600,9 +24631,8 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-    </row>
-    <row r="136" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:19" ht="12.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -24622,9 +24652,8 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-    </row>
-    <row r="137" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:19" ht="12.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -24644,9 +24673,8 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-    </row>
-    <row r="138" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:19" ht="12.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -24666,9 +24694,8 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-    </row>
-    <row r="139" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:19" ht="12.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -24688,9 +24715,8 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-    </row>
-    <row r="140" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:19" ht="12.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -24710,9 +24736,8 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
-      <c r="T140" s="2"/>
-    </row>
-    <row r="141" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:19" ht="12.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -24732,9 +24757,8 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-    </row>
-    <row r="142" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:19" ht="12.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -24754,9 +24778,8 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-    </row>
-    <row r="143" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:19" ht="12.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -24776,9 +24799,8 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-    </row>
-    <row r="144" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:19" ht="12.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -24798,9 +24820,8 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-    </row>
-    <row r="145" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="145" spans="1:19" ht="12.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -24820,9 +24841,8 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-    </row>
-    <row r="146" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:19" ht="12.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -24842,9 +24862,8 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-    </row>
-    <row r="147" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:19" ht="12.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -24864,9 +24883,8 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-    </row>
-    <row r="148" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:19" ht="12.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -24886,9 +24904,8 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-    </row>
-    <row r="149" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:19" ht="12.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -24908,9 +24925,8 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-    </row>
-    <row r="150" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:19" ht="12.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -24930,9 +24946,8 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-    </row>
-    <row r="151" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:19" ht="12.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -24952,9 +24967,8 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
-      <c r="T151" s="2"/>
-    </row>
-    <row r="152" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:19" ht="12.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -24974,9 +24988,8 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-    </row>
-    <row r="153" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:19" ht="12.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -24996,9 +25009,8 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-    </row>
-    <row r="154" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:19" ht="12.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -25018,9 +25030,8 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-    </row>
-    <row r="155" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:19" ht="12.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -25040,9 +25051,8 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-    </row>
-    <row r="156" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="156" spans="1:19" ht="12.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -25062,9 +25072,8 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-    </row>
-    <row r="157" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="157" spans="1:19" ht="12.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -25084,9 +25093,8 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-    </row>
-    <row r="158" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="158" spans="1:19" ht="12.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -25106,9 +25114,8 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-    </row>
-    <row r="159" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="159" spans="1:19" ht="12.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -25128,9 +25135,8 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-    </row>
-    <row r="160" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="160" spans="1:19" ht="12.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -25150,9 +25156,8 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-    </row>
-    <row r="161" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="161" spans="1:19" ht="12.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -25172,9 +25177,8 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-    </row>
-    <row r="162" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="162" spans="1:19" ht="12.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -25194,9 +25198,8 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-    </row>
-    <row r="163" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="163" spans="1:19" ht="12.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -25216,9 +25219,8 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-    </row>
-    <row r="164" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="164" spans="1:19" ht="12.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -25238,9 +25240,8 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-    </row>
-    <row r="165" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:19" ht="12.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -25260,9 +25261,8 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-    </row>
-    <row r="166" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="166" spans="1:19" ht="12.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -25282,9 +25282,8 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-    </row>
-    <row r="167" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="167" spans="1:19" ht="12.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -25304,9 +25303,8 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-    </row>
-    <row r="168" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="168" spans="1:19" ht="12.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -25326,9 +25324,8 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-    </row>
-    <row r="169" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="169" spans="1:19" ht="12.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -25348,9 +25345,8 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-    </row>
-    <row r="170" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:19" ht="12.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -25370,9 +25366,8 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-    </row>
-    <row r="171" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:19" ht="12.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -25392,9 +25387,8 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-    </row>
-    <row r="172" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="172" spans="1:19" ht="12.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -25414,9 +25408,8 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-    </row>
-    <row r="173" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="173" spans="1:19" ht="12.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -25436,9 +25429,8 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-    </row>
-    <row r="174" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="174" spans="1:19" ht="12.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -25458,9 +25450,8 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-    </row>
-    <row r="175" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="175" spans="1:19" ht="12.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -25480,9 +25471,8 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-    </row>
-    <row r="176" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="176" spans="1:19" ht="12.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -25502,9 +25492,8 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-    </row>
-    <row r="177" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="177" spans="1:19" ht="12.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -25524,9 +25513,8 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-    </row>
-    <row r="178" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="178" spans="1:19" ht="12.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -25546,9 +25534,8 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-    </row>
-    <row r="179" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="179" spans="1:19" ht="12.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -25568,9 +25555,8 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-    </row>
-    <row r="180" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="180" spans="1:19" ht="12.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -25590,9 +25576,8 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-    </row>
-    <row r="181" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="181" spans="1:19" ht="12.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -25612,9 +25597,8 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-    </row>
-    <row r="182" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="182" spans="1:19" ht="12.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -25634,9 +25618,8 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-    </row>
-    <row r="183" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="183" spans="1:19" ht="12.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -25656,9 +25639,8 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-    </row>
-    <row r="184" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="184" spans="1:19" ht="12.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -25678,9 +25660,8 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-    </row>
-    <row r="185" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:19" ht="12.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -25700,9 +25681,8 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-    </row>
-    <row r="186" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="186" spans="1:19" ht="12.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -25722,9 +25702,8 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-    </row>
-    <row r="187" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:19" ht="12.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -25744,9 +25723,8 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-    </row>
-    <row r="188" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="188" spans="1:19" ht="12.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -25766,9 +25744,8 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-    </row>
-    <row r="189" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="189" spans="1:19" ht="12.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -25788,9 +25765,8 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-    </row>
-    <row r="190" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="190" spans="1:19" ht="12.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -25810,9 +25786,8 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-    </row>
-    <row r="191" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="191" spans="1:19" ht="12.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -25832,9 +25807,8 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-    </row>
-    <row r="192" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="192" spans="1:19" ht="12.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -25854,9 +25828,8 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-    </row>
-    <row r="193" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="193" spans="1:19" ht="12.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -25876,9 +25849,8 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-    </row>
-    <row r="194" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="194" spans="1:19" ht="12.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -25898,9 +25870,8 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-    </row>
-    <row r="195" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:19" ht="12.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -25920,9 +25891,8 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-    </row>
-    <row r="196" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="196" spans="1:19" ht="12.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -25942,9 +25912,8 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-    </row>
-    <row r="197" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="197" spans="1:19" ht="12.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -25964,9 +25933,8 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-    </row>
-    <row r="198" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="198" spans="1:19" ht="12.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -25986,9 +25954,8 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-    </row>
-    <row r="199" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="199" spans="1:19" ht="12.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -26008,9 +25975,8 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-    </row>
-    <row r="200" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="200" spans="1:19" ht="12.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -26030,9 +25996,8 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-    </row>
-    <row r="201" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="201" spans="1:19" ht="12.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -26052,9 +26017,8 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-    </row>
-    <row r="202" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="202" spans="1:19" ht="12.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -26074,9 +26038,8 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-    </row>
-    <row r="203" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="203" spans="1:19" ht="12.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -26096,9 +26059,8 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-    </row>
-    <row r="204" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="204" spans="1:19" ht="12.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -26118,9 +26080,8 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-    </row>
-    <row r="205" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="205" spans="1:19" ht="12.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -26140,9 +26101,8 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-    </row>
-    <row r="206" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="206" spans="1:19" ht="12.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -26162,9 +26122,8 @@
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-    </row>
-    <row r="207" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:19" ht="12.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -26184,9 +26143,8 @@
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
       <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-    </row>
-    <row r="208" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="208" spans="1:19" ht="12.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -26206,9 +26164,8 @@
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
       <c r="S208" s="2"/>
-      <c r="T208" s="2"/>
-    </row>
-    <row r="209" spans="1:20" ht="12.75" customHeight="1">
+    </row>
+    <row r="209" spans="1:19" ht="12.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -26228,23 +26185,62 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-    </row>
-    <row r="210" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="211" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="212" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="213" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="214" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="215" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="216" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="217" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="218" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="219" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="220" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="221" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:20" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="210" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+    </row>
+    <row r="211" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+    </row>
+    <row r="212" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="213" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="214" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="215" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="216" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="217" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="219" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -27010,13 +27006,15 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
     <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="D3:G4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="71" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;LLehigh University IAC&amp;CLE0497&amp;R&amp;P/</oddFooter>
   </headerFooter>
@@ -27028,311 +27026,331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.83203125" style="90" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="68" customWidth="1"/>
+    <col min="2" max="6" width="15.83203125" style="68" customWidth="1"/>
+    <col min="7" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="20" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:5" ht="20" customHeight="1">
-      <c r="B2" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-    </row>
-    <row r="3" spans="2:5" ht="20" customHeight="1" thickBot="1">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-    </row>
-    <row r="4" spans="2:5" ht="20" customHeight="1" thickTop="1">
-      <c r="B4" s="112" t="s">
+    <row r="1" spans="2:6" ht="20" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:6" ht="20" customHeight="1">
+      <c r="B2" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="121"/>
+    </row>
+    <row r="3" spans="2:6" ht="20" customHeight="1" thickBot="1">
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="121"/>
+    </row>
+    <row r="4" spans="2:6" ht="20" customHeight="1">
+      <c r="B4" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="102" t="str">
+        <f>'Raw Data'!Q2</f>
+        <v>Natural Gas</v>
+      </c>
+      <c r="F4" s="126"/>
+    </row>
+    <row r="5" spans="2:6" ht="20" customHeight="1" thickBot="1">
+      <c r="B5" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20" customHeight="1" thickBot="1">
-      <c r="B5" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20" customHeight="1" thickTop="1">
-      <c r="B6" s="91">
+      <c r="C5" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="126"/>
+    </row>
+    <row r="6" spans="2:6" ht="20" customHeight="1">
+      <c r="B6" s="69">
         <f>'Raw Data'!B7</f>
         <v>44927</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="51">
         <f>'Raw Data'!D7</f>
         <v>112187.25</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="51">
         <f>'Raw Data'!F7</f>
         <v>11246.72</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="52">
         <f>'Raw Data'!N7</f>
         <v>104545.84</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="20" customHeight="1">
-      <c r="B7" s="91">
+      <c r="F6" s="125"/>
+    </row>
+    <row r="7" spans="2:6" ht="20" customHeight="1">
+      <c r="B7" s="69">
         <f>'Raw Data'!B8</f>
         <v>44958</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="51">
         <f>'Raw Data'!D8</f>
         <v>105810.33</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="51">
         <f>'Raw Data'!F8</f>
         <v>9182.59</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="52">
         <f>'Raw Data'!N8</f>
         <v>96610.76</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="20" customHeight="1">
-      <c r="B8" s="91">
+      <c r="F7" s="125"/>
+    </row>
+    <row r="8" spans="2:6" ht="20" customHeight="1">
+      <c r="B8" s="69">
         <f>'Raw Data'!B9</f>
         <v>44986</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="51">
         <f>'Raw Data'!D9</f>
         <v>113295.70999999999</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="51">
         <f>'Raw Data'!F9</f>
         <v>10833.23</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="52">
         <f>'Raw Data'!N9</f>
         <v>89239.59</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="20" customHeight="1">
-      <c r="B9" s="91">
+      <c r="F8" s="125"/>
+    </row>
+    <row r="9" spans="2:6" ht="20" customHeight="1">
+      <c r="B9" s="69">
         <f>'Raw Data'!B10</f>
         <v>45017</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="51">
         <f>'Raw Data'!D10</f>
         <v>190071.66</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="51">
         <f>'Raw Data'!F10</f>
         <v>10877.58</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="52">
         <f>'Raw Data'!N10</f>
         <v>99192.69</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="20" customHeight="1">
-      <c r="B10" s="91">
+      <c r="F9" s="125"/>
+    </row>
+    <row r="10" spans="2:6" ht="20" customHeight="1">
+      <c r="B10" s="69">
         <f>'Raw Data'!B11</f>
         <v>45047</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="51">
         <f>'Raw Data'!D11</f>
         <v>107034.78</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="51">
         <f>'Raw Data'!F11</f>
         <v>11915.23</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="52">
         <f>'Raw Data'!N11</f>
         <v>95129.01</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="20" customHeight="1">
-      <c r="B11" s="91">
+      <c r="F10" s="125"/>
+    </row>
+    <row r="11" spans="2:6" ht="20" customHeight="1">
+      <c r="B11" s="69">
         <f>'Raw Data'!B12</f>
         <v>45078</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="51">
         <f>'Raw Data'!D12</f>
         <v>109757.79000000001</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="51">
         <f>'Raw Data'!F12</f>
         <v>11415.33</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="52">
         <f>'Raw Data'!N12</f>
         <v>77783.38</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="20" customHeight="1">
-      <c r="B12" s="91">
+      <c r="F11" s="125"/>
+    </row>
+    <row r="12" spans="2:6" ht="20" customHeight="1">
+      <c r="B12" s="69">
         <f>'Raw Data'!B13</f>
         <v>45108</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="51">
         <f>'Raw Data'!D13</f>
         <v>116930.2</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="51">
         <f>'Raw Data'!F13</f>
         <v>16318.08</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="52">
         <f>'Raw Data'!N13</f>
         <v>79413.899999999994</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="20" customHeight="1">
-      <c r="B13" s="91">
+      <c r="F12" s="125"/>
+    </row>
+    <row r="13" spans="2:6" ht="20" customHeight="1">
+      <c r="B13" s="69">
         <f>'Raw Data'!B14</f>
         <v>45139</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="51">
         <f>'Raw Data'!D14</f>
         <v>116021.33</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="51">
         <f>'Raw Data'!F14</f>
         <v>16362.32</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="52">
         <f>'Raw Data'!N14</f>
         <v>86054.1</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="20" customHeight="1">
-      <c r="B14" s="91">
+      <c r="F13" s="125"/>
+    </row>
+    <row r="14" spans="2:6" ht="20" customHeight="1">
+      <c r="B14" s="69">
         <f>'Raw Data'!B15</f>
         <v>45170</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="51">
         <f>'Raw Data'!D15</f>
         <v>105996.93</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="51">
         <f>'Raw Data'!F15</f>
         <v>11909.08</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="52">
         <f>'Raw Data'!N15</f>
         <v>79062.47</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="20" customHeight="1">
-      <c r="B15" s="91">
+      <c r="F14" s="125"/>
+    </row>
+    <row r="15" spans="2:6" ht="20" customHeight="1">
+      <c r="B15" s="69">
         <f>'Raw Data'!B16</f>
         <v>45200</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="51">
         <f>'Raw Data'!D16</f>
         <v>112845.42</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="51">
         <f>'Raw Data'!F16</f>
         <v>10557.39</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="52">
         <f>'Raw Data'!N16</f>
         <v>105077.37</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="20" customHeight="1">
-      <c r="B16" s="91">
+      <c r="F15" s="125"/>
+    </row>
+    <row r="16" spans="2:6" ht="20" customHeight="1">
+      <c r="B16" s="69">
         <f>'Raw Data'!B17</f>
         <v>45231</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="51">
         <f>'Raw Data'!D17</f>
         <v>112862.44</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="51">
         <f>'Raw Data'!F17</f>
         <v>9342.08</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="52">
         <f>'Raw Data'!N17</f>
         <v>118518.95</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="20" customHeight="1" thickBot="1">
-      <c r="B17" s="92">
+      <c r="F16" s="125"/>
+    </row>
+    <row r="17" spans="2:6" ht="20" customHeight="1" thickBot="1">
+      <c r="B17" s="86">
         <f>'Raw Data'!B18</f>
         <v>45261</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="95">
         <f>'Raw Data'!D18</f>
         <v>116321.57</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="95">
         <f>'Raw Data'!F18</f>
         <v>11454.62</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="96">
         <f>'Raw Data'!N18</f>
         <v>128236.23</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="46" t="s">
+      <c r="F17" s="125"/>
+    </row>
+    <row r="18" spans="2:6" ht="20" customHeight="1" thickBot="1">
+      <c r="B18" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="107">
         <f>'Raw Data'!D19</f>
         <v>1419135.41</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="107">
         <f>'Raw Data'!F19</f>
         <v>141414.25</v>
       </c>
-      <c r="E18" s="111">
+      <c r="E18" s="108">
         <f>'Raw Data'!N19</f>
         <v>1158864.29</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1"/>
+      <c r="F18" s="125"/>
+    </row>
+    <row r="19" spans="2:6" ht="20" customHeight="1"/>
+    <row r="20" spans="2:6" ht="20" customHeight="1"/>
+    <row r="21" spans="2:6" ht="20" customHeight="1"/>
+    <row r="22" spans="2:6" ht="20" customHeight="1"/>
+    <row r="23" spans="2:6" ht="20" customHeight="1"/>
+    <row r="24" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="25" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="26" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="27" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="28" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="29" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="30" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="31" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="32" spans="2:6" ht="12.75" customHeight="1"/>
     <row r="33" spans="8:8" ht="12.75" customHeight="1"/>
     <row r="34" spans="8:8" ht="12.75" customHeight="1"/>
     <row r="35" spans="8:8" ht="12.75" customHeight="1"/>
     <row r="36" spans="8:8" ht="12.75" customHeight="1"/>
     <row r="37" spans="8:8" ht="12.75" customHeight="1">
-      <c r="H37" s="149"/>
+      <c r="H37" s="79"/>
     </row>
     <row r="38" spans="8:8" ht="12.75" customHeight="1"/>
     <row r="39" spans="8:8" ht="12.75" customHeight="1"/>

--- a/Energy Charts.xlsx
+++ b/Energy Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gux215/Desktop/IAC-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB116CF6-D637-CF46-864D-C3E1C5E3B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35DC58-AB86-E949-9A2B-E14281BEFCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="3" r:id="rId1"/>
@@ -10002,7 +10002,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8686800" cy="5486400"/>
+    <xdr:ext cx="8229600" cy="5486400"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 18" descr="Total">
@@ -10234,7 +10234,7 @@
   </sheetPr>
   <dimension ref="A1:W985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -21161,8 +21161,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Energy Charts.xlsx
+++ b/Energy Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gux215/Desktop/IAC-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35DC58-AB86-E949-9A2B-E14281BEFCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB907D-B301-EF40-8336-9E14AB0386AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Electricity</t>
   </si>
@@ -206,12 +206,15 @@
   <si>
     <t>Select Unit:</t>
   </si>
+  <si>
+    <t>Start Month:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -220,6 +223,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="168" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="173" formatCode="[$-409]mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -765,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,9 +988,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -994,7 +995,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1075,6 +1075,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1437,49 +1455,48 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Raw Data'!$B$7:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1558,7 +1575,7 @@
         <c:axId val="1377651871"/>
         <c:axId val="849745581"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1377651871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1611,7 +1628,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1648,9 +1665,10 @@
         <c:crossAx val="849745581"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="849745581"/>
         <c:scaling>
@@ -1906,49 +1924,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Raw Data'!$B$7:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2027,7 +2044,7 @@
         <c:axId val="1887447462"/>
         <c:axId val="37806394"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1887447462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2080,7 +2097,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2117,9 +2134,10 @@
         <c:crossAx val="37806394"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="37806394"/>
         <c:scaling>
@@ -2365,49 +2383,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Raw Data'!$K$7:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2486,7 +2503,7 @@
         <c:axId val="1785923266"/>
         <c:axId val="1447404673"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1785923266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2539,7 +2556,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2576,9 +2593,10 @@
         <c:crossAx val="1447404673"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1447404673"/>
         <c:scaling>
@@ -2820,49 +2838,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Raw Data'!$B$7:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2941,7 +2958,7 @@
         <c:axId val="28082369"/>
         <c:axId val="383855701"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="28082369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2994,7 +3011,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3031,9 +3048,10 @@
         <c:crossAx val="383855701"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="383855701"/>
         <c:scaling>
@@ -3291,49 +3309,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Raw Data'!$B$7:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3412,7 +3429,7 @@
         <c:axId val="108330797"/>
         <c:axId val="1620900580"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="108330797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3465,7 +3482,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3502,9 +3519,10 @@
         <c:crossAx val="1620900580"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1620900580"/>
         <c:scaling>
@@ -3746,49 +3764,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Raw Data'!$K$7:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3867,7 +3884,7 @@
         <c:axId val="1162425962"/>
         <c:axId val="1807436536"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1162425962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3920,7 +3937,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3957,9 +3974,10 @@
         <c:crossAx val="1807436536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1807436536"/>
         <c:scaling>
@@ -4954,49 +4972,48 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Monthly Cost'!$B$6:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5087,49 +5104,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Monthly Cost'!$B$6:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5220,49 +5236,48 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Monthly Cost'!$B$6:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44927</c:v>
+                  <c:v>Jun 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44958</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44986</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45017</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45047</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45078</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45108</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45139</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45170</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45200</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45231</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>May 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5348,7 +5363,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10234,8 +10249,8 @@
   </sheetPr>
   <dimension ref="A1:W985"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10261,50 +10276,50 @@
     </row>
     <row r="2" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="90" t="str">
+      <c r="K2" s="86" t="str">
         <f>_xlfn.CONCAT(Q2," Usage and Cost by Month")</f>
         <v>Natural Gas Usage and Cost by Month</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="P2" s="81" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="P2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="79" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="P3" s="81" t="s">
+      <c r="K3" s="89"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="P3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="79" t="s">
         <v>41</v>
       </c>
     </row>
@@ -10351,10 +10366,10 @@
         <f>Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="110">
         <f>VLOOKUP(Q2,P7:W14,MATCH(Q3,P6:W6,0),FALSE)</f>
         <v>1.036</v>
       </c>
@@ -10398,7 +10413,12 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="78"/>
+      <c r="P5" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="114">
+        <v>44713</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -10443,32 +10463,33 @@
       <c r="P6" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="77" t="s">
+      <c r="Q6" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="77" t="s">
+      <c r="R6" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="77" t="s">
+      <c r="S6" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="77" t="s">
+      <c r="T6" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="77" t="s">
+      <c r="W6" s="111" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="28">
-        <v>44927</v>
+      <c r="B7" s="28" t="str">
+        <f>TEXT(EDATE($Q$5,0),"mmm yy")</f>
+        <v>Jun 22</v>
       </c>
       <c r="C7" s="8">
         <v>1384234</v>
@@ -10494,9 +10515,9 @@
         <v>14312.140630303031</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="28">
+      <c r="K7" s="28" t="str">
         <f t="shared" ref="K7:K18" si="0">B7</f>
-        <v>44927</v>
+        <v>Jun 22</v>
       </c>
       <c r="L7" s="10">
         <v>36311.129999999997</v>
@@ -10511,27 +10532,27 @@
       <c r="P7" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="111">
         <v>1</v>
       </c>
-      <c r="R7" s="77">
+      <c r="R7" s="111">
         <v>0.1</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="111">
         <v>1.036</v>
       </c>
-      <c r="T7" s="77">
+      <c r="T7" s="111">
         <v>0.1036</v>
       </c>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
     </row>
     <row r="8" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="29">
-        <f>EDATE(B7,1)</f>
-        <v>44958</v>
+      <c r="B8" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,1),"mmm yy")</f>
+        <v>Jul 22</v>
       </c>
       <c r="C8" s="12">
         <v>1311914</v>
@@ -10557,9 +10578,9 @@
         <v>13564.395660606062</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="29">
+      <c r="K8" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>44958</v>
+        <v>Jul 22</v>
       </c>
       <c r="L8" s="14">
         <v>30510.85</v>
@@ -10574,25 +10595,25 @@
       <c r="P8" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77">
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111">
         <v>2.5499999999999998</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="111">
         <v>0.255</v>
       </c>
-      <c r="U8" s="77">
+      <c r="U8" s="111">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
     </row>
     <row r="9" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="29">
-        <f t="shared" ref="B9:B17" si="1">EDATE(B8,1)</f>
-        <v>44986</v>
+      <c r="B9" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,2),"mmm yy")</f>
+        <v>Aug 22</v>
       </c>
       <c r="C9" s="12">
         <v>1402432</v>
@@ -10607,52 +10628,53 @@
         <v>10833.23</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G17" si="2">H9-D9-F9</f>
+        <f t="shared" ref="G9:G17" si="1">H9-D9-F9</f>
         <v>4000.0000000000109</v>
       </c>
       <c r="H9" s="12">
         <v>128128.94</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" ref="I9:I17" si="3">C9*0.003412/0.33</f>
+        <f t="shared" ref="I9:I17" si="2">C9*0.003412/0.33</f>
         <v>14500.296921212121</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="29">
+      <c r="K9" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>44986</v>
+        <v>Aug 22</v>
       </c>
       <c r="L9" s="14">
         <v>27991.1</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" ref="M9:M17" si="4">L9*$Q$4</f>
+        <f t="shared" ref="M9:M17" si="3">L9*$Q$4</f>
         <v>28998.779599999998</v>
       </c>
       <c r="N9" s="15">
         <v>89239.59</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77">
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111">
         <v>3.2</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="111">
         <v>0.32</v>
       </c>
-      <c r="U9" s="77">
+      <c r="U9" s="111">
         <v>0.10199999999999999</v>
       </c>
-      <c r="W9" s="77"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="111"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="29">
-        <f t="shared" si="1"/>
-        <v>45017</v>
+      <c r="B10" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,3),"mmm yy")</f>
+        <v>Sep 22</v>
       </c>
       <c r="C10" s="12">
         <v>2358602</v>
@@ -10667,48 +10689,49 @@
         <v>10877.58</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3999.9999999999873</v>
       </c>
       <c r="H10" s="12">
         <v>204949.24</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24386.515224242423</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="29">
+      <c r="K10" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45017</v>
+        <v>Sep 22</v>
       </c>
       <c r="L10" s="14">
         <v>33437.660000000003</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34641.415760000004</v>
       </c>
       <c r="N10" s="15">
         <v>99192.69</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="U10" s="77">
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="111">
         <v>0.13739999999999999</v>
       </c>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
     </row>
     <row r="11" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="29">
-        <f t="shared" si="1"/>
-        <v>45047</v>
+      <c r="B11" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,4),"mmm yy")</f>
+        <v>Oct 22</v>
       </c>
       <c r="C11" s="12">
         <v>1338996</v>
@@ -10723,26 +10746,26 @@
         <v>11915.23</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3999.9900000000016</v>
       </c>
       <c r="H11" s="12">
         <v>122950</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13844.407127272729</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="29">
+      <c r="K11" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>Oct 22</v>
       </c>
       <c r="L11" s="14">
         <v>32212.62</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33372.274319999997</v>
       </c>
       <c r="N11" s="15">
@@ -10751,21 +10774,21 @@
       <c r="P11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77">
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V11" s="77"/>
-      <c r="W11" s="76"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="113"/>
     </row>
     <row r="12" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="29">
-        <f t="shared" si="1"/>
-        <v>45078</v>
+      <c r="B12" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,5),"mmm yy")</f>
+        <v>Nov 22</v>
       </c>
       <c r="C12" s="12">
         <v>1338142</v>
@@ -10780,26 +10803,26 @@
         <v>11415.33</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3999.9999999999873</v>
       </c>
       <c r="H12" s="12">
         <v>125173.12</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13835.577284848485</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="29">
+      <c r="K12" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>Nov 22</v>
       </c>
       <c r="L12" s="14">
         <v>25238.78</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26147.376079999998</v>
       </c>
       <c r="N12" s="15">
@@ -10808,21 +10831,21 @@
       <c r="P12" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77">
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111">
         <v>0.14399999999999999</v>
       </c>
-      <c r="V12" s="77"/>
-      <c r="W12" s="76"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="113"/>
     </row>
     <row r="13" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="29">
-        <f t="shared" si="1"/>
-        <v>45108</v>
+      <c r="B13" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,6),"mmm yy")</f>
+        <v>Dec 22</v>
       </c>
       <c r="C13" s="12">
         <v>1456049</v>
@@ -10837,26 +10860,26 @@
         <v>16318.08</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000.0000000000018</v>
       </c>
       <c r="H13" s="12">
         <v>137248.28</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15054.664206060605</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="29">
+      <c r="K13" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>Dec 22</v>
       </c>
       <c r="L13" s="14">
         <v>25523.07</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26441.900519999999</v>
       </c>
       <c r="N13" s="15">
@@ -10865,21 +10888,21 @@
       <c r="P13" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77">
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111">
         <v>0.152</v>
       </c>
-      <c r="V13" s="77"/>
-      <c r="W13" s="76"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="113"/>
     </row>
     <row r="14" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="29">
-        <f t="shared" si="1"/>
-        <v>45139</v>
+      <c r="B14" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,7),"mmm yy")</f>
+        <v>Jan 23</v>
       </c>
       <c r="C14" s="12">
         <v>1464718</v>
@@ -10894,26 +10917,26 @@
         <v>16362.32</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3999.9999999999927</v>
       </c>
       <c r="H14" s="12">
         <v>136383.65</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15144.296412121212</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="29">
+      <c r="K14" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>Jan 23</v>
       </c>
       <c r="L14" s="14">
         <v>27372.79</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28358.210440000003</v>
       </c>
       <c r="N14" s="15">
@@ -10922,23 +10945,23 @@
       <c r="P14" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77">
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111">
         <v>2800000</v>
       </c>
-      <c r="W14" s="77">
+      <c r="W14" s="111">
         <v>83.34</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="29">
-        <f t="shared" si="1"/>
-        <v>45170</v>
+      <c r="B15" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,8),"mmm yy")</f>
+        <v>Feb 23</v>
       </c>
       <c r="C15" s="12">
         <v>1293209</v>
@@ -10953,26 +10976,26 @@
         <v>11909.08</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000.0000000000164</v>
       </c>
       <c r="H15" s="12">
         <v>121906.01000000001</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13370.997296969697</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="29">
+      <c r="K15" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>Feb 23</v>
       </c>
       <c r="L15" s="14">
         <v>25227.72</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26135.917920000004</v>
       </c>
       <c r="N15" s="15">
@@ -10981,9 +11004,9 @@
     </row>
     <row r="16" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="29">
-        <f t="shared" si="1"/>
-        <v>45200</v>
+      <c r="B16" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,9),"mmm yy")</f>
+        <v>Mar 23</v>
       </c>
       <c r="C16" s="12">
         <v>1384787.9878681675</v>
@@ -10998,26 +11021,26 @@
         <v>10557.39</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="H16" s="12">
         <v>127402.81</v>
       </c>
       <c r="I16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14317.868529109659</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="29">
+      <c r="K16" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>Mar 23</v>
       </c>
       <c r="L16" s="14">
         <v>34904.32</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36160.875520000001</v>
       </c>
       <c r="N16" s="15">
@@ -11026,9 +11049,9 @@
     </row>
     <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="29">
-        <f t="shared" si="1"/>
-        <v>45231</v>
+      <c r="B17" s="29" t="str">
+        <f>TEXT(EDATE($Q$5,10),"mmm yy")</f>
+        <v>Apr 23</v>
       </c>
       <c r="C17" s="12">
         <v>1458890</v>
@@ -11043,26 +11066,26 @@
         <v>9342.08</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3999.9999999999873</v>
       </c>
       <c r="H17" s="12">
         <v>126204.51999999999</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15084.038424242424</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="29">
+      <c r="K17" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>Apr 23</v>
       </c>
       <c r="L17" s="14">
         <v>39036.019999999997</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40441.316719999995</v>
       </c>
       <c r="N17" s="15">
@@ -11071,9 +11094,9 @@
     </row>
     <row r="18" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="45">
-        <f>EDATE(B7,11)</f>
-        <v>45261</v>
+      <c r="B18" s="45" t="str">
+        <f>TEXT(EDATE($Q$5,11),"mmm yy")</f>
+        <v>May 23</v>
       </c>
       <c r="C18" s="46">
         <v>1430891</v>
@@ -11099,9 +11122,9 @@
         <v>14794.545733333332</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="45">
+      <c r="K18" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>May 23</v>
       </c>
       <c r="L18" s="54">
         <v>40927.550000000003</v>
@@ -11120,31 +11143,31 @@
         <v>4</v>
       </c>
       <c r="C19" s="49">
-        <f t="shared" ref="C19:I19" si="5">SUM(C7:C18)</f>
+        <f t="shared" ref="C19:I19" si="4">SUM(C7:C18)</f>
         <v>17622864.987868167</v>
       </c>
       <c r="D19" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1419135.41</v>
       </c>
       <c r="E19" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33494.408498570214</v>
       </c>
       <c r="F19" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>141414.25</v>
       </c>
       <c r="G19" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47999.989999999969</v>
       </c>
       <c r="H19" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1608549.6500000001</v>
       </c>
       <c r="I19" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>182209.74345032181</v>
       </c>
       <c r="J19" s="4"/>
@@ -11152,15 +11175,15 @@
         <v>17</v>
       </c>
       <c r="L19" s="57">
-        <f t="shared" ref="L19:N19" si="6">SUM(L7:L18)</f>
+        <f t="shared" ref="L19:N19" si="5">SUM(L7:L18)</f>
         <v>378693.61</v>
       </c>
       <c r="M19" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>392326.57996</v>
       </c>
       <c r="N19" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1158864.29</v>
       </c>
     </row>
@@ -11182,10 +11205,10 @@
     </row>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="87"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="21">
         <f>D19/C19</f>
         <v>8.0528075938671326E-2</v>
@@ -11201,10 +11224,10 @@
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="23">
         <f>D19/I19</f>
         <v>7.7884715884412463</v>
@@ -11220,10 +11243,10 @@
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="25">
         <f>F19/E19</f>
         <v>4.2220255958852535</v>
@@ -11239,11 +11262,11 @@
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="86" t="str">
+      <c r="B24" s="82" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( Q2, " Cost :")</f>
         <v>Natural Gas Cost :</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="23">
         <f>N19/M19</f>
         <v>2.9538255861179556</v>
@@ -15991,18 +16014,18 @@
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="27"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -21161,7 +21184,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -21173,20 +21196,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="80"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="59" t="s">
@@ -21202,7 +21225,7 @@
         <f>'Raw Data'!Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
@@ -21217,12 +21240,12 @@
       <c r="E5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="28">
+      <c r="B6" s="28" t="str">
         <f>'Raw Data'!B7</f>
-        <v>44927</v>
+        <v>Jun 22</v>
       </c>
       <c r="C6" s="10">
         <f>'Raw Data'!D7</f>
@@ -21236,12 +21259,12 @@
         <f>'Raw Data'!N7</f>
         <v>104545.84</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28">
+      <c r="B7" s="28" t="str">
         <f>'Raw Data'!B8</f>
-        <v>44958</v>
+        <v>Jul 22</v>
       </c>
       <c r="C7" s="10">
         <f>'Raw Data'!D8</f>
@@ -21255,12 +21278,12 @@
         <f>'Raw Data'!N8</f>
         <v>96610.76</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28">
+      <c r="B8" s="28" t="str">
         <f>'Raw Data'!B9</f>
-        <v>44986</v>
+        <v>Aug 22</v>
       </c>
       <c r="C8" s="10">
         <f>'Raw Data'!D9</f>
@@ -21274,12 +21297,12 @@
         <f>'Raw Data'!N9</f>
         <v>89239.59</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28">
+      <c r="B9" s="28" t="str">
         <f>'Raw Data'!B10</f>
-        <v>45017</v>
+        <v>Sep 22</v>
       </c>
       <c r="C9" s="10">
         <f>'Raw Data'!D10</f>
@@ -21293,12 +21316,12 @@
         <f>'Raw Data'!N10</f>
         <v>99192.69</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28">
+      <c r="B10" s="28" t="str">
         <f>'Raw Data'!B11</f>
-        <v>45047</v>
+        <v>Oct 22</v>
       </c>
       <c r="C10" s="10">
         <f>'Raw Data'!D11</f>
@@ -21312,12 +21335,12 @@
         <f>'Raw Data'!N11</f>
         <v>95129.01</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28">
+      <c r="B11" s="28" t="str">
         <f>'Raw Data'!B12</f>
-        <v>45078</v>
+        <v>Nov 22</v>
       </c>
       <c r="C11" s="10">
         <f>'Raw Data'!D12</f>
@@ -21331,12 +21354,12 @@
         <f>'Raw Data'!N12</f>
         <v>77783.38</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28">
+      <c r="B12" s="28" t="str">
         <f>'Raw Data'!B13</f>
-        <v>45108</v>
+        <v>Dec 22</v>
       </c>
       <c r="C12" s="10">
         <f>'Raw Data'!D13</f>
@@ -21350,12 +21373,12 @@
         <f>'Raw Data'!N13</f>
         <v>79413.899999999994</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28">
+      <c r="B13" s="28" t="str">
         <f>'Raw Data'!B14</f>
-        <v>45139</v>
+        <v>Jan 23</v>
       </c>
       <c r="C13" s="10">
         <f>'Raw Data'!D14</f>
@@ -21369,12 +21392,12 @@
         <f>'Raw Data'!N14</f>
         <v>86054.1</v>
       </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28">
+      <c r="B14" s="28" t="str">
         <f>'Raw Data'!B15</f>
-        <v>45170</v>
+        <v>Feb 23</v>
       </c>
       <c r="C14" s="10">
         <f>'Raw Data'!D15</f>
@@ -21388,12 +21411,12 @@
         <f>'Raw Data'!N15</f>
         <v>79062.47</v>
       </c>
-      <c r="F14" s="84"/>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28">
+      <c r="B15" s="28" t="str">
         <f>'Raw Data'!B16</f>
-        <v>45200</v>
+        <v>Mar 23</v>
       </c>
       <c r="C15" s="10">
         <f>'Raw Data'!D16</f>
@@ -21407,12 +21430,12 @@
         <f>'Raw Data'!N16</f>
         <v>105077.37</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28">
+      <c r="B16" s="28" t="str">
         <f>'Raw Data'!B17</f>
-        <v>45231</v>
+        <v>Apr 23</v>
       </c>
       <c r="C16" s="10">
         <f>'Raw Data'!D17</f>
@@ -21426,12 +21449,12 @@
         <f>'Raw Data'!N17</f>
         <v>118518.95</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="80"/>
     </row>
     <row r="17" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45">
+      <c r="B17" s="45" t="str">
         <f>'Raw Data'!B18</f>
-        <v>45261</v>
+        <v>May 23</v>
       </c>
       <c r="C17" s="54">
         <f>'Raw Data'!D18</f>
@@ -21445,7 +21468,7 @@
         <f>'Raw Data'!N18</f>
         <v>128236.23</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="80"/>
     </row>
     <row r="18" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="65" t="s">
@@ -21463,7 +21486,7 @@
         <f>'Raw Data'!N19</f>
         <v>1158864.29</v>
       </c>
-      <c r="F18" s="84"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Energy Charts.xlsx
+++ b/Energy Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gux215/Desktop/IAC-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB907D-B301-EF40-8336-9E14AB0386AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB4ED2-1EEE-EC4B-B3F4-34314DB33307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="168" formatCode="mmm\ yy"/>
-    <numFmt numFmtId="173" formatCode="[$-409]mmm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -769,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,28 +788,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -897,12 +882,6 @@
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,14 +974,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1075,23 +1066,58 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1460,40 +1486,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1929,40 +1955,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2388,40 +2414,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2843,40 +2869,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3314,40 +3340,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3769,40 +3795,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4977,40 +5003,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5109,40 +5135,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5241,40 +5267,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Jun 22</c:v>
+                  <c:v>Jul 22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jul 22</c:v>
+                  <c:v>Aug 22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aug 22</c:v>
+                  <c:v>Sep 22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sep 22</c:v>
+                  <c:v>Oct 22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oct 22</c:v>
+                  <c:v>Nov 22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nov 22</c:v>
+                  <c:v>Dec 22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dec 22</c:v>
+                  <c:v>Jan 23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Jan 23</c:v>
+                  <c:v>Feb 23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Feb 23</c:v>
+                  <c:v>Mar 23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mar 23</c:v>
+                  <c:v>Apr 23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Apr 23</c:v>
+                  <c:v>May 23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>May 23</c:v>
+                  <c:v>Jun 23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10250,7 +10276,7 @@
   <dimension ref="A1:W985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10260,116 +10286,116 @@
   <sheetData>
     <row r="1" spans="1:23" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="86" t="str">
+      <c r="K2" s="83" t="str">
         <f>_xlfn.CONCAT(Q2," Usage and Cost by Month")</f>
         <v>Natural Gas Usage and Cost by Month</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
-      <c r="P2" s="78" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="P2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="106" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="P3" s="78" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="P3" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="106" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="39" t="str">
+      <c r="K4" s="34" t="str">
         <f>Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="L4" s="52" t="str">
+      <c r="L4" s="45" t="str">
         <f>Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="M4" s="52" t="str">
+      <c r="M4" s="45" t="str">
         <f>Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="N4" s="53" t="str">
+      <c r="N4" s="46" t="str">
         <f>Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="110">
+      <c r="Q4" s="75">
         <f>VLOOKUP(Q2,P7:W14,MATCH(Q3,P6:W6,0),FALSE)</f>
         <v>1.036</v>
       </c>
@@ -10413,776 +10439,776 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="109" t="s">
+      <c r="P5" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="114">
-        <v>44713</v>
+      <c r="Q5" s="107">
+        <v>44743</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="43" t="str">
+      <c r="L6" s="38" t="str">
         <f>_xlfn.CONCAT("[",Q3,"]")</f>
         <v>[Mcf]</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="74" t="s">
+      <c r="P6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="111" t="s">
+      <c r="Q6" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="111" t="s">
+      <c r="R6" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="111" t="s">
+      <c r="S6" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="111" t="s">
+      <c r="T6" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="111" t="s">
+      <c r="U6" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="111" t="s">
+      <c r="V6" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="111" t="s">
+      <c r="W6" s="76" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="28" t="str">
+      <c r="B7" s="23" t="str">
         <f>TEXT(EDATE($Q$5,0),"mmm yy")</f>
-        <v>Jun 22</v>
-      </c>
-      <c r="C7" s="8">
+        <v>Jul 22</v>
+      </c>
+      <c r="C7" s="108">
         <v>1384234</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="108">
         <v>112187.25</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="108">
         <v>2930</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="108">
         <v>11246.72</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="108">
         <f>H7-D7-F7</f>
         <v>4000.0000000000018</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="108">
         <v>127433.97</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="111">
         <f>C7*0.003412/0.33</f>
         <v>14312.140630303031</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="28" t="str">
+      <c r="K7" s="23" t="str">
         <f t="shared" ref="K7:K18" si="0">B7</f>
-        <v>Jun 22</v>
-      </c>
-      <c r="L7" s="10">
+        <v>Jul 22</v>
+      </c>
+      <c r="L7" s="114">
         <v>36311.129999999997</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <f>L7*$Q$4</f>
         <v>37618.330679999999</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="117">
         <v>104545.84</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="111">
+      <c r="Q7" s="76">
         <v>1</v>
       </c>
-      <c r="R7" s="111">
+      <c r="R7" s="76">
         <v>0.1</v>
       </c>
-      <c r="S7" s="111">
+      <c r="S7" s="76">
         <v>1.036</v>
       </c>
-      <c r="T7" s="111">
+      <c r="T7" s="76">
         <v>0.1036</v>
       </c>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
     </row>
     <row r="8" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="24" t="str">
         <f>TEXT(EDATE($Q$5,1),"mmm yy")</f>
-        <v>Jul 22</v>
-      </c>
-      <c r="C8" s="12">
+        <v>Aug 22</v>
+      </c>
+      <c r="C8" s="109">
         <v>1311914</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="109">
         <v>105810.33</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="109">
         <v>2720</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="109">
         <v>9182.59</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="109">
         <f>H8-D8-F8</f>
         <v>3999.9999999999964</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="109">
         <v>118992.92</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="112">
         <f>C8*0.003412/0.33</f>
         <v>13564.395660606062</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="29" t="str">
+      <c r="K8" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Jul 22</v>
-      </c>
-      <c r="L8" s="14">
+        <v>Aug 22</v>
+      </c>
+      <c r="L8" s="115">
         <v>30510.85</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="10">
         <f>L8*$Q$4</f>
         <v>31609.240600000001</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="118">
         <v>96610.76</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111">
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76">
         <v>2.5499999999999998</v>
       </c>
-      <c r="T8" s="111">
+      <c r="T8" s="76">
         <v>0.255</v>
       </c>
-      <c r="U8" s="111">
+      <c r="U8" s="76">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
     </row>
     <row r="9" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="29" t="str">
+      <c r="B9" s="24" t="str">
         <f>TEXT(EDATE($Q$5,2),"mmm yy")</f>
-        <v>Aug 22</v>
-      </c>
-      <c r="C9" s="12">
+        <v>Sep 22</v>
+      </c>
+      <c r="C9" s="109">
         <v>1402432</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="109">
         <v>113295.70999999999</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="109">
         <v>2950</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="109">
         <v>10833.23</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="109">
         <f t="shared" ref="G9:G17" si="1">H9-D9-F9</f>
         <v>4000.0000000000109</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="109">
         <v>128128.94</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="112">
         <f t="shared" ref="I9:I17" si="2">C9*0.003412/0.33</f>
         <v>14500.296921212121</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="29" t="str">
+      <c r="K9" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Aug 22</v>
-      </c>
-      <c r="L9" s="14">
+        <v>Sep 22</v>
+      </c>
+      <c r="L9" s="115">
         <v>27991.1</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="10">
         <f t="shared" ref="M9:M17" si="3">L9*$Q$4</f>
         <v>28998.779599999998</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="118">
         <v>89239.59</v>
       </c>
-      <c r="P9" s="76" t="s">
+      <c r="P9" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76">
         <v>3.2</v>
       </c>
-      <c r="T9" s="111">
+      <c r="T9" s="76">
         <v>0.32</v>
       </c>
-      <c r="U9" s="111">
+      <c r="U9" s="76">
         <v>0.10199999999999999</v>
       </c>
-      <c r="V9" s="112"/>
-      <c r="W9" s="111"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="76"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="24" t="str">
         <f>TEXT(EDATE($Q$5,3),"mmm yy")</f>
-        <v>Sep 22</v>
-      </c>
-      <c r="C10" s="12">
+        <v>Oct 22</v>
+      </c>
+      <c r="C10" s="109">
         <v>2358602</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="109">
         <v>190071.66</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="109">
         <v>2556</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="109">
         <v>10877.58</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="109">
         <f t="shared" si="1"/>
         <v>3999.9999999999873</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="109">
         <v>204949.24</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="112">
         <f t="shared" si="2"/>
         <v>24386.515224242423</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Sep 22</v>
-      </c>
-      <c r="L10" s="14">
+        <v>Oct 22</v>
+      </c>
+      <c r="L10" s="115">
         <v>33437.660000000003</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
         <v>34641.415760000004</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="118">
         <v>99192.69</v>
       </c>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="111">
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="76">
         <v>0.13739999999999999</v>
       </c>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
     </row>
     <row r="11" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="29" t="str">
+      <c r="B11" s="24" t="str">
         <f>TEXT(EDATE($Q$5,4),"mmm yy")</f>
-        <v>Oct 22</v>
-      </c>
-      <c r="C11" s="12">
+        <v>Nov 22</v>
+      </c>
+      <c r="C11" s="109">
         <v>1338996</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="109">
         <v>107034.78</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="109">
         <v>2795.1881200490484</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="109">
         <v>11915.23</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="109">
         <f t="shared" si="1"/>
         <v>3999.9900000000016</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="109">
         <v>122950</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="112">
         <f t="shared" si="2"/>
         <v>13844.407127272729</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="29" t="str">
+      <c r="K11" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Oct 22</v>
-      </c>
-      <c r="L11" s="14">
+        <v>Nov 22</v>
+      </c>
+      <c r="L11" s="115">
         <v>32212.62</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="10">
         <f t="shared" si="3"/>
         <v>33372.274319999997</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="118">
         <v>95129.01</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111">
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V11" s="111"/>
-      <c r="W11" s="113"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="78"/>
     </row>
     <row r="12" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="29" t="str">
+      <c r="B12" s="24" t="str">
         <f>TEXT(EDATE($Q$5,5),"mmm yy")</f>
-        <v>Nov 22</v>
-      </c>
-      <c r="C12" s="12">
+        <v>Dec 22</v>
+      </c>
+      <c r="C12" s="109">
         <v>1338142</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="109">
         <v>109757.79000000001</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="109">
         <v>2795.9760558395405</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="109">
         <v>11415.33</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="109">
         <f t="shared" si="1"/>
         <v>3999.9999999999873</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="109">
         <v>125173.12</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="112">
         <f t="shared" si="2"/>
         <v>13835.577284848485</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="29" t="str">
+      <c r="K12" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Nov 22</v>
-      </c>
-      <c r="L12" s="14">
+        <v>Dec 22</v>
+      </c>
+      <c r="L12" s="115">
         <v>25238.78</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="10">
         <f t="shared" si="3"/>
         <v>26147.376079999998</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="118">
         <v>77783.38</v>
       </c>
-      <c r="P12" s="75" t="s">
+      <c r="P12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111">
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76">
         <v>0.14399999999999999</v>
       </c>
-      <c r="V12" s="111"/>
-      <c r="W12" s="113"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="78"/>
     </row>
     <row r="13" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="29" t="str">
+      <c r="B13" s="24" t="str">
         <f>TEXT(EDATE($Q$5,6),"mmm yy")</f>
-        <v>Dec 22</v>
-      </c>
-      <c r="C13" s="12">
+        <v>Jan 23</v>
+      </c>
+      <c r="C13" s="109">
         <v>1456049</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="109">
         <v>116930.2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="109">
         <v>2811.4235985488122</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="109">
         <v>16318.08</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="109">
         <f t="shared" si="1"/>
         <v>4000.0000000000018</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="109">
         <v>137248.28</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="112">
         <f t="shared" si="2"/>
         <v>15054.664206060605</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Dec 22</v>
-      </c>
-      <c r="L13" s="14">
+        <v>Jan 23</v>
+      </c>
+      <c r="L13" s="115">
         <v>25523.07</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <f t="shared" si="3"/>
         <v>26441.900519999999</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="118">
         <v>79413.899999999994</v>
       </c>
-      <c r="P13" s="75" t="s">
+      <c r="P13" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111">
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76">
         <v>0.152</v>
       </c>
-      <c r="V13" s="111"/>
-      <c r="W13" s="113"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="78"/>
     </row>
     <row r="14" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="29" t="str">
+      <c r="B14" s="24" t="str">
         <f>TEXT(EDATE($Q$5,7),"mmm yy")</f>
-        <v>Jan 23</v>
-      </c>
-      <c r="C14" s="12">
+        <v>Feb 23</v>
+      </c>
+      <c r="C14" s="109">
         <v>1464718</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="109">
         <v>116021.33</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="109">
         <v>2815.6428364697422</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="109">
         <v>16362.32</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="109">
         <f t="shared" si="1"/>
         <v>3999.9999999999927</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="109">
         <v>136383.65</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="112">
         <f t="shared" si="2"/>
         <v>15144.296412121212</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="29" t="str">
+      <c r="K14" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Jan 23</v>
-      </c>
-      <c r="L14" s="14">
+        <v>Feb 23</v>
+      </c>
+      <c r="L14" s="115">
         <v>27372.79</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="10">
         <f t="shared" si="3"/>
         <v>28358.210440000003</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="118">
         <v>86054.1</v>
       </c>
-      <c r="P14" s="75" t="s">
+      <c r="P14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111">
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76">
         <v>2800000</v>
       </c>
-      <c r="W14" s="111">
+      <c r="W14" s="76">
         <v>83.34</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="29" t="str">
+      <c r="B15" s="24" t="str">
         <f>TEXT(EDATE($Q$5,8),"mmm yy")</f>
-        <v>Feb 23</v>
-      </c>
-      <c r="C15" s="12">
+        <v>Mar 23</v>
+      </c>
+      <c r="C15" s="109">
         <v>1293209</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="109">
         <v>105996.93</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="109">
         <v>2739</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="109">
         <v>11909.08</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="109">
         <f t="shared" si="1"/>
         <v>4000.0000000000164</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="109">
         <v>121906.01000000001</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="112">
         <f t="shared" si="2"/>
         <v>13370.997296969697</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="29" t="str">
+      <c r="K15" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Feb 23</v>
-      </c>
-      <c r="L15" s="14">
+        <v>Mar 23</v>
+      </c>
+      <c r="L15" s="115">
         <v>25227.72</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="10">
         <f t="shared" si="3"/>
         <v>26135.917920000004</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="118">
         <v>79062.47</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="29" t="str">
+      <c r="B16" s="24" t="str">
         <f>TEXT(EDATE($Q$5,9),"mmm yy")</f>
-        <v>Mar 23</v>
-      </c>
-      <c r="C16" s="12">
+        <v>Apr 23</v>
+      </c>
+      <c r="C16" s="109">
         <v>1384787.9878681675</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="109">
         <v>112845.42</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="109">
         <v>2793.784770922698</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="109">
         <v>10557.39</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="109">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="109">
         <v>127402.81</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="112">
         <f t="shared" si="2"/>
         <v>14317.868529109659</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Mar 23</v>
-      </c>
-      <c r="L16" s="14">
+        <v>Apr 23</v>
+      </c>
+      <c r="L16" s="115">
         <v>34904.32</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="10">
         <f t="shared" si="3"/>
         <v>36160.875520000001</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="118">
         <v>105077.37</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="29" t="str">
+      <c r="B17" s="24" t="str">
         <f>TEXT(EDATE($Q$5,10),"mmm yy")</f>
-        <v>Apr 23</v>
-      </c>
-      <c r="C17" s="12">
+        <v>May 23</v>
+      </c>
+      <c r="C17" s="109">
         <v>1458890</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="109">
         <v>112862.44</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="109">
         <v>2788.1916668673757</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="109">
         <v>9342.08</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="109">
         <f t="shared" si="1"/>
         <v>3999.9999999999873</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="109">
         <v>126204.51999999999</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="112">
         <f t="shared" si="2"/>
         <v>15084.038424242424</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="29" t="str">
+      <c r="K17" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Apr 23</v>
-      </c>
-      <c r="L17" s="14">
+        <v>May 23</v>
+      </c>
+      <c r="L17" s="115">
         <v>39036.019999999997</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="10">
         <f t="shared" si="3"/>
         <v>40441.316719999995</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="118">
         <v>118518.95</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="45" t="str">
+      <c r="B18" s="40" t="str">
         <f>TEXT(EDATE($Q$5,11),"mmm yy")</f>
-        <v>May 23</v>
-      </c>
-      <c r="C18" s="46">
+        <v>Jun 23</v>
+      </c>
+      <c r="C18" s="110">
         <v>1430891</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="110">
         <v>116321.57</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="110">
         <v>2799.2014498729936</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="110">
         <v>11454.62</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="110">
         <f>H18-D18-F18</f>
         <v>3999.9999999999945</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="110">
         <v>131776.19</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="113">
         <f>C18*0.003412/0.33</f>
         <v>14794.545733333332</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="45" t="str">
+      <c r="K18" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>May 23</v>
-      </c>
-      <c r="L18" s="54">
+        <v>Jun 23</v>
+      </c>
+      <c r="L18" s="116">
         <v>40927.550000000003</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="47">
         <f>L18*$Q$4</f>
         <v>42400.941800000008</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="119">
         <v>128236.23</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="42">
         <f t="shared" ref="C19:I19" si="4">SUM(C7:C18)</f>
         <v>17622864.987868167</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="42">
         <f t="shared" si="4"/>
         <v>1419135.41</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="42">
         <f t="shared" si="4"/>
         <v>33494.408498570214</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="43">
         <f t="shared" si="4"/>
         <v>141414.25</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="43">
         <f t="shared" si="4"/>
         <v>47999.989999999969</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="42">
         <f t="shared" si="4"/>
         <v>1608549.6500000001</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="44">
         <f t="shared" si="4"/>
         <v>182209.74345032181</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="50">
         <f t="shared" ref="L19:N19" si="5">SUM(L7:L18)</f>
         <v>378693.61</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="50">
         <f t="shared" si="5"/>
         <v>392326.57996</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="51">
         <f t="shared" si="5"/>
         <v>1158864.29</v>
       </c>
@@ -11192,28 +11218,28 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="21">
+      <c r="C21" s="80"/>
+      <c r="D21" s="16">
         <f>D19/C19</f>
         <v>8.0528075938671326E-2</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="3"/>
@@ -11224,60 +11250,60 @@
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="23">
+      <c r="C22" s="82"/>
+      <c r="D22" s="18">
         <f>D19/I19</f>
         <v>7.7884715884412463</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="25">
+      <c r="C23" s="80"/>
+      <c r="D23" s="20">
         <f>F19/E19</f>
         <v>4.2220255958852535</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="82" t="str">
+      <c r="B24" s="79" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( Q2, " Cost :")</f>
         <v>Natural Gas Cost :</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="23">
+      <c r="C24" s="80"/>
+      <c r="D24" s="18">
         <f>N19/M19</f>
         <v>2.9538255861179556</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14916,6 +14942,7 @@
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B22:C22"/>
@@ -14946,8 +14973,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="U1:U1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15978,6 +16005,7 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -15994,9 +16022,7 @@
   </sheetPr>
   <dimension ref="A1:S990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16007,25 +16033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -16040,16 +16066,16 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="63" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2"/>
@@ -16066,18 +16092,18 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <f>'Raw Data'!C19</f>
         <v>17622864.987868167</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <f>'Raw Data'!I19</f>
         <v>182209.74345032181</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>'Raw Data'!D19</f>
         <v>1419135.41</v>
       </c>
@@ -16095,16 +16121,16 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="31">
         <f>'Raw Data'!F19</f>
         <v>141414.25</v>
       </c>
@@ -16122,18 +16148,18 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="64" t="str">
         <f>'Raw Data'!Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="47">
         <f>'Raw Data'!M19</f>
         <v>392326.57996</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="48">
         <f>'Raw Data'!N19</f>
         <v>1158864.29</v>
       </c>
@@ -16151,17 +16177,17 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="50">
         <f t="shared" ref="D8:E8" si="0">SUM(D5:D7)</f>
         <v>574536.32341032184</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="51">
         <f t="shared" si="0"/>
         <v>2719413.95</v>
       </c>
@@ -21166,6 +21192,7 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:E3"/>
   </mergeCells>
@@ -21184,309 +21211,309 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="15.83203125" style="27" customWidth="1"/>
+    <col min="1" max="6" width="15.83203125" style="22" customWidth="1"/>
     <col min="7" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="77"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="61" t="str">
+      <c r="E4" s="54" t="str">
         <f>'Raw Data'!Q2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="F4" s="81"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="81"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="28" t="str">
+      <c r="B6" s="23" t="str">
         <f>'Raw Data'!B7</f>
-        <v>Jun 22</v>
-      </c>
-      <c r="C6" s="10">
+        <v>Jul 22</v>
+      </c>
+      <c r="C6" s="8">
         <f>'Raw Data'!D7</f>
         <v>112187.25</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f>'Raw Data'!F7</f>
         <v>11246.72</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>'Raw Data'!N7</f>
         <v>104545.84</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="str">
+      <c r="B7" s="23" t="str">
         <f>'Raw Data'!B8</f>
-        <v>Jul 22</v>
-      </c>
-      <c r="C7" s="10">
+        <v>Aug 22</v>
+      </c>
+      <c r="C7" s="8">
         <f>'Raw Data'!D8</f>
         <v>105810.33</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f>'Raw Data'!F8</f>
         <v>9182.59</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f>'Raw Data'!N8</f>
         <v>96610.76</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28" t="str">
+      <c r="B8" s="23" t="str">
         <f>'Raw Data'!B9</f>
-        <v>Aug 22</v>
-      </c>
-      <c r="C8" s="10">
+        <v>Sep 22</v>
+      </c>
+      <c r="C8" s="8">
         <f>'Raw Data'!D9</f>
         <v>113295.70999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f>'Raw Data'!F9</f>
         <v>10833.23</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>'Raw Data'!N9</f>
         <v>89239.59</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28" t="str">
+      <c r="B9" s="23" t="str">
         <f>'Raw Data'!B10</f>
-        <v>Sep 22</v>
-      </c>
-      <c r="C9" s="10">
+        <v>Oct 22</v>
+      </c>
+      <c r="C9" s="8">
         <f>'Raw Data'!D10</f>
         <v>190071.66</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <f>'Raw Data'!F10</f>
         <v>10877.58</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>'Raw Data'!N10</f>
         <v>99192.69</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28" t="str">
+      <c r="B10" s="23" t="str">
         <f>'Raw Data'!B11</f>
-        <v>Oct 22</v>
-      </c>
-      <c r="C10" s="10">
+        <v>Nov 22</v>
+      </c>
+      <c r="C10" s="8">
         <f>'Raw Data'!D11</f>
         <v>107034.78</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f>'Raw Data'!F11</f>
         <v>11915.23</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>'Raw Data'!N11</f>
         <v>95129.01</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="11" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28" t="str">
+      <c r="B11" s="23" t="str">
         <f>'Raw Data'!B12</f>
-        <v>Nov 22</v>
-      </c>
-      <c r="C11" s="10">
+        <v>Dec 22</v>
+      </c>
+      <c r="C11" s="8">
         <f>'Raw Data'!D12</f>
         <v>109757.79000000001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f>'Raw Data'!F12</f>
         <v>11415.33</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>'Raw Data'!N12</f>
         <v>77783.38</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28" t="str">
+      <c r="B12" s="23" t="str">
         <f>'Raw Data'!B13</f>
-        <v>Dec 22</v>
-      </c>
-      <c r="C12" s="10">
+        <v>Jan 23</v>
+      </c>
+      <c r="C12" s="8">
         <f>'Raw Data'!D13</f>
         <v>116930.2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <f>'Raw Data'!F13</f>
         <v>16318.08</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f>'Raw Data'!N13</f>
         <v>79413.899999999994</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28" t="str">
+      <c r="B13" s="23" t="str">
         <f>'Raw Data'!B14</f>
-        <v>Jan 23</v>
-      </c>
-      <c r="C13" s="10">
+        <v>Feb 23</v>
+      </c>
+      <c r="C13" s="8">
         <f>'Raw Data'!D14</f>
         <v>116021.33</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <f>'Raw Data'!F14</f>
         <v>16362.32</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f>'Raw Data'!N14</f>
         <v>86054.1</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28" t="str">
+      <c r="B14" s="23" t="str">
         <f>'Raw Data'!B15</f>
-        <v>Feb 23</v>
-      </c>
-      <c r="C14" s="10">
+        <v>Mar 23</v>
+      </c>
+      <c r="C14" s="8">
         <f>'Raw Data'!D15</f>
         <v>105996.93</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <f>'Raw Data'!F15</f>
         <v>11909.08</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f>'Raw Data'!N15</f>
         <v>79062.47</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="23" t="str">
         <f>'Raw Data'!B16</f>
-        <v>Mar 23</v>
-      </c>
-      <c r="C15" s="10">
+        <v>Apr 23</v>
+      </c>
+      <c r="C15" s="8">
         <f>'Raw Data'!D16</f>
         <v>112845.42</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <f>'Raw Data'!F16</f>
         <v>10557.39</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <f>'Raw Data'!N16</f>
         <v>105077.37</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="23" t="str">
         <f>'Raw Data'!B17</f>
-        <v>Apr 23</v>
-      </c>
-      <c r="C16" s="10">
+        <v>May 23</v>
+      </c>
+      <c r="C16" s="8">
         <f>'Raw Data'!D17</f>
         <v>112862.44</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <f>'Raw Data'!F17</f>
         <v>9342.08</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <f>'Raw Data'!N17</f>
         <v>118518.95</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="str">
+      <c r="B17" s="40" t="str">
         <f>'Raw Data'!B18</f>
-        <v>May 23</v>
-      </c>
-      <c r="C17" s="54">
+        <v>Jun 23</v>
+      </c>
+      <c r="C17" s="47">
         <f>'Raw Data'!D18</f>
         <v>116321.57</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="47">
         <f>'Raw Data'!F18</f>
         <v>11454.62</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="48">
         <f>'Raw Data'!N18</f>
         <v>128236.23</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="72"/>
     </row>
     <row r="18" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="59">
         <f>'Raw Data'!D19</f>
         <v>1419135.41</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="59">
         <f>'Raw Data'!F19</f>
         <v>141414.25</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="60">
         <f>'Raw Data'!N19</f>
         <v>1158864.29</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21503,7 +21530,7 @@
     <row r="31" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H33" s="38"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="8:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22469,6 +22496,7 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:E3"/>
   </mergeCells>
